--- a/data/pca/factorExposure/factorExposure_2011-07-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-07-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -704,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,39 +747,63 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.0226016351603561</v>
+        <v>0.01942043059235776</v>
       </c>
       <c r="C2">
-        <v>-0.001160433079486171</v>
+        <v>-0.0008691896156321078</v>
       </c>
       <c r="D2">
-        <v>-0.04722667730876352</v>
+        <v>-0.003364530862438381</v>
       </c>
       <c r="E2">
-        <v>0.02867586505491087</v>
+        <v>0.03677411152758744</v>
       </c>
       <c r="F2">
-        <v>0.04663695909546425</v>
+        <v>0.003100370042945132</v>
       </c>
       <c r="G2">
-        <v>0.002909109932966945</v>
+        <v>-0.0249846032430534</v>
       </c>
       <c r="H2">
-        <v>-0.02306230887772949</v>
+        <v>0.01965939518409519</v>
       </c>
       <c r="I2">
-        <v>0.02058858906873586</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>-0.04038015678185734</v>
+      </c>
+      <c r="J2">
+        <v>-0.054533861016058</v>
+      </c>
+      <c r="K2">
+        <v>0.00427506614326572</v>
+      </c>
+      <c r="L2">
+        <v>0.04098066319638732</v>
+      </c>
+      <c r="M2">
+        <v>0.03048750957503349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -793,39 +829,63 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.07143728394719502</v>
+        <v>0.1051913411162598</v>
       </c>
       <c r="C4">
-        <v>0.05900615728623581</v>
+        <v>0.07761355860107279</v>
       </c>
       <c r="D4">
-        <v>-0.0385017392311741</v>
+        <v>-0.02384936722559573</v>
       </c>
       <c r="E4">
-        <v>0.04725918897371043</v>
+        <v>0.04773381742876718</v>
       </c>
       <c r="F4">
-        <v>-0.005044183519939692</v>
+        <v>0.1064616605315707</v>
       </c>
       <c r="G4">
-        <v>-0.02811804773273266</v>
+        <v>0.01430978972233184</v>
       </c>
       <c r="H4">
-        <v>0.0004705470465616061</v>
+        <v>-0.06296007138767529</v>
       </c>
       <c r="I4">
-        <v>0.01109189327392</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.04036068629532512</v>
+      </c>
+      <c r="J4">
+        <v>0.002534273468842647</v>
+      </c>
+      <c r="K4">
+        <v>-0.08561280735856382</v>
+      </c>
+      <c r="L4">
+        <v>-0.06170457692734017</v>
+      </c>
+      <c r="M4">
+        <v>0.02019788230925151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -851,329 +911,473 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>-0.1280938067372341</v>
+        <v>0.1307993069937318</v>
       </c>
       <c r="C6">
-        <v>0.03161053803811475</v>
+        <v>0.05394727541450265</v>
       </c>
       <c r="D6">
-        <v>-0.06371223270854592</v>
+        <v>-0.003625326341218449</v>
       </c>
       <c r="E6">
-        <v>0.1149047839584336</v>
+        <v>0.03316822400762122</v>
       </c>
       <c r="F6">
-        <v>-0.09815429664568484</v>
+        <v>0.037370930514948</v>
       </c>
       <c r="G6">
-        <v>0.03003593947693077</v>
+        <v>0.1471352565920967</v>
       </c>
       <c r="H6">
-        <v>0.1990273548208623</v>
+        <v>0.08003988543115143</v>
       </c>
       <c r="I6">
-        <v>-0.2191767478207595</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.1009918182453445</v>
+      </c>
+      <c r="J6">
+        <v>0.1529013404208436</v>
+      </c>
+      <c r="K6">
+        <v>-0.3685732950727206</v>
+      </c>
+      <c r="L6">
+        <v>0.1837229156338161</v>
+      </c>
+      <c r="M6">
+        <v>-0.03292567288680084</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>-0.06543717678569022</v>
+        <v>0.07016563829829975</v>
       </c>
       <c r="C7">
-        <v>0.0533955275886889</v>
+        <v>0.07422087052547788</v>
       </c>
       <c r="D7">
-        <v>-0.05368089306910381</v>
+        <v>-0.006716427082684385</v>
       </c>
       <c r="E7">
-        <v>0.03433036306742888</v>
+        <v>0.04455601418903608</v>
       </c>
       <c r="F7">
-        <v>-0.04192477798954493</v>
+        <v>0.02227332680395674</v>
       </c>
       <c r="G7">
-        <v>-0.005126525015644978</v>
+        <v>-0.0006919563050850106</v>
       </c>
       <c r="H7">
-        <v>0.004601292544296373</v>
+        <v>-0.0524784386041862</v>
       </c>
       <c r="I7">
-        <v>0.05485326932297068</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.03829636935852924</v>
+      </c>
+      <c r="J7">
+        <v>-0.004487875686462367</v>
+      </c>
+      <c r="K7">
+        <v>0.01669272407254136</v>
+      </c>
+      <c r="L7">
+        <v>-0.09693535048931914</v>
+      </c>
+      <c r="M7">
+        <v>-0.00159500848043995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>-0.02574120562408733</v>
+        <v>0.03505005599834689</v>
       </c>
       <c r="C8">
-        <v>0.01367982938407316</v>
+        <v>0.0106053689444607</v>
       </c>
       <c r="D8">
-        <v>-0.03502968094197458</v>
+        <v>-0.0190562158333953</v>
       </c>
       <c r="E8">
-        <v>0.05348719568871751</v>
+        <v>0.04868028941818289</v>
       </c>
       <c r="F8">
-        <v>0.01537533145604312</v>
+        <v>0.1032523423512803</v>
       </c>
       <c r="G8">
-        <v>0.05538037054414056</v>
+        <v>0.01369647887345698</v>
       </c>
       <c r="H8">
-        <v>-0.01060444832711396</v>
+        <v>-0.03881774726914744</v>
       </c>
       <c r="I8">
-        <v>0.04164132423057899</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.01654213509528095</v>
+      </c>
+      <c r="J8">
+        <v>-0.02997886022562544</v>
+      </c>
+      <c r="K8">
+        <v>-0.07885832917148296</v>
+      </c>
+      <c r="L8">
+        <v>-0.04975594740424125</v>
+      </c>
+      <c r="M8">
+        <v>-0.003575970549792974</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>-0.07382076030483672</v>
+        <v>0.08389493780164589</v>
       </c>
       <c r="C9">
-        <v>0.07728183060080399</v>
+        <v>0.06831939609331182</v>
       </c>
       <c r="D9">
-        <v>-0.04337531284788602</v>
+        <v>-0.004073940174679195</v>
       </c>
       <c r="E9">
-        <v>0.03288983962156961</v>
+        <v>0.03056614902753992</v>
       </c>
       <c r="F9">
-        <v>0.008385918421853841</v>
+        <v>0.1035219242741178</v>
       </c>
       <c r="G9">
-        <v>-0.01617863680542669</v>
+        <v>0.008165049576001837</v>
       </c>
       <c r="H9">
-        <v>-0.00418235051223805</v>
+        <v>-0.06007426560139435</v>
       </c>
       <c r="I9">
-        <v>0.01778239681744173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.04493273700244448</v>
+      </c>
+      <c r="J9">
+        <v>0.001809828075313425</v>
+      </c>
+      <c r="K9">
+        <v>-0.044209312459394</v>
+      </c>
+      <c r="L9">
+        <v>-0.03061142638347403</v>
+      </c>
+      <c r="M9">
+        <v>-0.008313992774342914</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>-0.06339590389805055</v>
+        <v>0.1072699430989493</v>
       </c>
       <c r="C10">
-        <v>-0.1381478037745839</v>
+        <v>-0.1701673296082891</v>
       </c>
       <c r="D10">
-        <v>-0.05609602364812716</v>
+        <v>-0.008441482515652195</v>
       </c>
       <c r="E10">
-        <v>0.03679518876956224</v>
+        <v>0.05049734219692193</v>
       </c>
       <c r="F10">
-        <v>-0.04779840601015092</v>
+        <v>-0.01607156318364097</v>
       </c>
       <c r="G10">
-        <v>0.02621442125986244</v>
+        <v>0.01403579144526684</v>
       </c>
       <c r="H10">
-        <v>0.05231872235293612</v>
+        <v>-0.0008891937347273531</v>
       </c>
       <c r="I10">
-        <v>0.0008999252016504271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.02117426855131293</v>
+      </c>
+      <c r="J10">
+        <v>0.01820205210419598</v>
+      </c>
+      <c r="K10">
+        <v>0.07448612595613785</v>
+      </c>
+      <c r="L10">
+        <v>0.005087031968246145</v>
+      </c>
+      <c r="M10">
+        <v>-0.05563655736327503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>-0.06517794096069771</v>
+        <v>0.06624544026395904</v>
       </c>
       <c r="C11">
-        <v>0.08970336707841399</v>
+        <v>0.07037855123159342</v>
       </c>
       <c r="D11">
-        <v>-0.03646241343942896</v>
+        <v>0.03020808029108875</v>
       </c>
       <c r="E11">
-        <v>0.005239253898306111</v>
+        <v>0.01311306375777718</v>
       </c>
       <c r="F11">
-        <v>0.04879439116239691</v>
+        <v>0.106657016514715</v>
       </c>
       <c r="G11">
-        <v>0.01149056082270774</v>
+        <v>-0.01226499716714905</v>
       </c>
       <c r="H11">
-        <v>-0.04648959438679066</v>
+        <v>-0.04010190065302523</v>
       </c>
       <c r="I11">
-        <v>0.05430427365345073</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.03579402507979854</v>
+      </c>
+      <c r="J11">
+        <v>-0.05599876578168023</v>
+      </c>
+      <c r="K11">
+        <v>0.07627708928355785</v>
+      </c>
+      <c r="L11">
+        <v>0.007061230692304498</v>
+      </c>
+      <c r="M11">
+        <v>-0.07566078061286353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>-0.05899725268497611</v>
+        <v>0.0708222989171257</v>
       </c>
       <c r="C12">
-        <v>0.05507191043120261</v>
+        <v>0.06311242407527401</v>
       </c>
       <c r="D12">
-        <v>-0.01528018560227503</v>
+        <v>0.0293520695283422</v>
       </c>
       <c r="E12">
-        <v>0.01614908888965804</v>
+        <v>0.004223518827238237</v>
       </c>
       <c r="F12">
-        <v>-0.003232476034028739</v>
+        <v>0.1195083278604735</v>
       </c>
       <c r="G12">
-        <v>-0.007525753080273391</v>
+        <v>-0.0149034349231126</v>
       </c>
       <c r="H12">
-        <v>-0.02887886955901268</v>
+        <v>-0.03106860730069171</v>
       </c>
       <c r="I12">
-        <v>0.07318544581871003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.05794594384253382</v>
+      </c>
+      <c r="J12">
+        <v>-0.07563966645859833</v>
+      </c>
+      <c r="K12">
+        <v>0.03669145647768497</v>
+      </c>
+      <c r="L12">
+        <v>-0.01732341501477669</v>
+      </c>
+      <c r="M12">
+        <v>-0.1172638788671505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>-0.05372337478206964</v>
+        <v>0.04655986856512808</v>
       </c>
       <c r="C13">
-        <v>0.0189455590432037</v>
+        <v>0.03370696757342465</v>
       </c>
       <c r="D13">
-        <v>-0.009633665525707618</v>
+        <v>-0.01941368587044654</v>
       </c>
       <c r="E13">
-        <v>0.01064981685082436</v>
+        <v>0.00997324816189067</v>
       </c>
       <c r="F13">
-        <v>0.03405064252150437</v>
+        <v>0.04270038647417704</v>
       </c>
       <c r="G13">
-        <v>-0.03244998202016261</v>
+        <v>-0.01757712729767257</v>
       </c>
       <c r="H13">
-        <v>-0.02335854331455986</v>
+        <v>-0.03322738970789782</v>
       </c>
       <c r="I13">
-        <v>0.02617458695034638</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.01521531717186562</v>
+      </c>
+      <c r="J13">
+        <v>0.005787637072909241</v>
+      </c>
+      <c r="K13">
+        <v>-0.03291424029609843</v>
+      </c>
+      <c r="L13">
+        <v>-0.08722258790276806</v>
+      </c>
+      <c r="M13">
+        <v>0.004030395676518158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>-0.04146856495257047</v>
+        <v>0.04604804746024387</v>
       </c>
       <c r="C14">
-        <v>0.02687609672204132</v>
+        <v>0.02804890556791414</v>
       </c>
       <c r="D14">
-        <v>-0.02324333229287807</v>
+        <v>0.007862902627733079</v>
       </c>
       <c r="E14">
-        <v>-0.005043238409159271</v>
+        <v>0.01788035621650449</v>
       </c>
       <c r="F14">
-        <v>-0.0179901453989585</v>
+        <v>0.04665999944218173</v>
       </c>
       <c r="G14">
-        <v>-0.01507169967933231</v>
+        <v>-0.01952159512510192</v>
       </c>
       <c r="H14">
-        <v>0.09465837446504309</v>
+        <v>-0.06897273008216336</v>
       </c>
       <c r="I14">
-        <v>-0.008277305820047752</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.02235339506080302</v>
+      </c>
+      <c r="J14">
+        <v>0.04543658726399951</v>
+      </c>
+      <c r="K14">
+        <v>-0.04844077751481084</v>
+      </c>
+      <c r="L14">
+        <v>-0.04960520775895532</v>
+      </c>
+      <c r="M14">
+        <v>0.0296210913580466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>-0.03777559410248981</v>
+        <v>0.03110630712710046</v>
       </c>
       <c r="C15">
-        <v>-0.00309274918517312</v>
+        <v>0.00910725481539732</v>
       </c>
       <c r="D15">
-        <v>0.004928209782030148</v>
+        <v>-0.05989044641065739</v>
       </c>
       <c r="E15">
-        <v>0.02333237821786076</v>
+        <v>0.005903546891568026</v>
       </c>
       <c r="F15">
-        <v>-0.00505455599876402</v>
+        <v>0.001250018967774307</v>
       </c>
       <c r="G15">
-        <v>-0.01715614611008923</v>
+        <v>0.03645194239579969</v>
       </c>
       <c r="H15">
-        <v>0.001762207307562867</v>
+        <v>-0.03636496661413094</v>
       </c>
       <c r="I15">
-        <v>-0.01597912040406387</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>-0.02072145983943336</v>
+      </c>
+      <c r="J15">
+        <v>0.04179120713816238</v>
+      </c>
+      <c r="K15">
+        <v>-0.04701446675651647</v>
+      </c>
+      <c r="L15">
+        <v>-0.038335949208151</v>
+      </c>
+      <c r="M15">
+        <v>-0.007387282933206446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>-0.05025419206308349</v>
+        <v>0.07080281376859206</v>
       </c>
       <c r="C16">
-        <v>0.0880186512524849</v>
+        <v>0.07901433761585161</v>
       </c>
       <c r="D16">
-        <v>-0.02845187505245152</v>
+        <v>0.0197914285524345</v>
       </c>
       <c r="E16">
-        <v>0.02648064580184459</v>
+        <v>0.01342146285892925</v>
       </c>
       <c r="F16">
-        <v>0.02985482159882403</v>
+        <v>0.1096887762502603</v>
       </c>
       <c r="G16">
-        <v>-0.01867168897967345</v>
+        <v>-0.02383781261694017</v>
       </c>
       <c r="H16">
-        <v>-0.02000438901176445</v>
+        <v>-0.04474561038034289</v>
       </c>
       <c r="I16">
-        <v>0.09998799381838119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.06000348601762718</v>
+      </c>
+      <c r="J16">
+        <v>-0.06756350982459543</v>
+      </c>
+      <c r="K16">
+        <v>0.05304844427536271</v>
+      </c>
+      <c r="L16">
+        <v>-0.01791507047796513</v>
+      </c>
+      <c r="M16">
+        <v>-0.05772125963206012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1199,10 +1403,22 @@
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1228,10 +1444,22 @@
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1257,213 +1485,309 @@
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>-0.03894234574260134</v>
+        <v>0.04292709389804905</v>
       </c>
       <c r="C20">
-        <v>0.04376881267179785</v>
+        <v>0.03078088558755717</v>
       </c>
       <c r="D20">
-        <v>-0.01714613624612359</v>
+        <v>-0.02580911404727406</v>
       </c>
       <c r="E20">
-        <v>0.01450594581602267</v>
+        <v>0.02083901111063819</v>
       </c>
       <c r="F20">
-        <v>0.01879244068098696</v>
+        <v>0.05304839207530455</v>
       </c>
       <c r="G20">
-        <v>-0.03403577971434499</v>
+        <v>-0.02663785484101593</v>
       </c>
       <c r="H20">
-        <v>0.0007141709771192339</v>
+        <v>-0.04485437588397106</v>
       </c>
       <c r="I20">
-        <v>0.03928943744275837</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.05566599118749423</v>
+      </c>
+      <c r="J20">
+        <v>0.001048990819709836</v>
+      </c>
+      <c r="K20">
+        <v>-0.03422528125479396</v>
+      </c>
+      <c r="L20">
+        <v>-0.05862570813713178</v>
+      </c>
+      <c r="M20">
+        <v>-0.03503955446187506</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>-0.005525312541690307</v>
+        <v>0.02393222402130548</v>
       </c>
       <c r="C21">
-        <v>0.009234344661776991</v>
+        <v>0.01821972734266814</v>
       </c>
       <c r="D21">
-        <v>0.003930490011676641</v>
+        <v>-0.01715852921962515</v>
       </c>
       <c r="E21">
-        <v>0.07156995660073429</v>
+        <v>0.01592857766618216</v>
       </c>
       <c r="F21">
-        <v>-0.08280849355646104</v>
+        <v>0.04822093913470606</v>
       </c>
       <c r="G21">
-        <v>0.04743185297610444</v>
+        <v>0.09763552587378696</v>
       </c>
       <c r="H21">
-        <v>-0.0001556899330371902</v>
+        <v>-0.00428952806230056</v>
       </c>
       <c r="I21">
-        <v>-0.06822594741218047</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.05678152407554443</v>
+      </c>
+      <c r="J21">
+        <v>0.05360115061574024</v>
+      </c>
+      <c r="K21">
+        <v>-0.03952052356943375</v>
+      </c>
+      <c r="L21">
+        <v>-0.06880552983200838</v>
+      </c>
+      <c r="M21">
+        <v>-0.01042600380395831</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>-0.01452491507331369</v>
+        <v>0.04185460295048507</v>
       </c>
       <c r="C22">
-        <v>0.04589006965421327</v>
+        <v>0.02779833150690875</v>
       </c>
       <c r="D22">
-        <v>0.1444203922766075</v>
+        <v>-0.6550556442292935</v>
       </c>
       <c r="E22">
-        <v>0.4766790500379425</v>
+        <v>0.05297386008600993</v>
       </c>
       <c r="F22">
-        <v>-0.08825087601532956</v>
+        <v>-0.07762013267186443</v>
       </c>
       <c r="G22">
-        <v>-0.2303037254810377</v>
+        <v>-0.0700312173896442</v>
       </c>
       <c r="H22">
-        <v>-0.2587753803240668</v>
+        <v>0.06985445478497802</v>
       </c>
       <c r="I22">
-        <v>-0.05285981058768268</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.08432386474045162</v>
+      </c>
+      <c r="J22">
+        <v>0.04163731477562668</v>
+      </c>
+      <c r="K22">
+        <v>0.08787686620898187</v>
+      </c>
+      <c r="L22">
+        <v>0.02200445067858225</v>
+      </c>
+      <c r="M22">
+        <v>0.04225304884130614</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>-0.01544106257719737</v>
+        <v>0.04255782204259648</v>
       </c>
       <c r="C23">
-        <v>0.04456836737365755</v>
+        <v>0.02805450434135079</v>
       </c>
       <c r="D23">
-        <v>0.143943754846372</v>
+        <v>-0.6567038297768183</v>
       </c>
       <c r="E23">
-        <v>0.478075462251769</v>
+        <v>0.05396261255142844</v>
       </c>
       <c r="F23">
-        <v>-0.08736354813942564</v>
+        <v>-0.07290264888902202</v>
       </c>
       <c r="G23">
-        <v>-0.2261972158367686</v>
+        <v>-0.07014231840489481</v>
       </c>
       <c r="H23">
-        <v>-0.2565874599634393</v>
+        <v>0.07109609490917423</v>
       </c>
       <c r="I23">
-        <v>-0.05420193312901407</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.08291539639204848</v>
+      </c>
+      <c r="J23">
+        <v>0.04237616594407319</v>
+      </c>
+      <c r="K23">
+        <v>0.08406398836818367</v>
+      </c>
+      <c r="L23">
+        <v>0.02662897876663897</v>
+      </c>
+      <c r="M23">
+        <v>0.04326848170553634</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>-0.06887627709127965</v>
+        <v>0.07657033768309576</v>
       </c>
       <c r="C24">
-        <v>0.08205100534369915</v>
+        <v>0.07629947304917822</v>
       </c>
       <c r="D24">
-        <v>-0.04364988337886956</v>
+        <v>0.01768113176297711</v>
       </c>
       <c r="E24">
-        <v>0.03788420365579041</v>
+        <v>0.01882196323697466</v>
       </c>
       <c r="F24">
-        <v>0.02802177994334291</v>
+        <v>0.1117294347813871</v>
       </c>
       <c r="G24">
-        <v>0.0107514956592912</v>
+        <v>-0.01230186864973969</v>
       </c>
       <c r="H24">
-        <v>-0.02205274879044407</v>
+        <v>-0.03061076221736003</v>
       </c>
       <c r="I24">
-        <v>0.0494980175281926</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.05301917909903772</v>
+      </c>
+      <c r="J24">
+        <v>-0.0540970701395199</v>
+      </c>
+      <c r="K24">
+        <v>0.04992471303154186</v>
+      </c>
+      <c r="L24">
+        <v>0.01507143273567132</v>
+      </c>
+      <c r="M24">
+        <v>-0.08063151693817509</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>-0.0619644382785673</v>
+        <v>0.07304264990598953</v>
       </c>
       <c r="C25">
-        <v>0.04144920682705475</v>
+        <v>0.04953896033395855</v>
       </c>
       <c r="D25">
-        <v>-0.0364902058193514</v>
+        <v>0.0314446563704581</v>
       </c>
       <c r="E25">
-        <v>0.04300438178903577</v>
+        <v>0.01614447548679418</v>
       </c>
       <c r="F25">
-        <v>0.03847198323407605</v>
+        <v>0.1169833997802828</v>
       </c>
       <c r="G25">
-        <v>-0.00324286564836782</v>
+        <v>-0.02854235463411602</v>
       </c>
       <c r="H25">
-        <v>0.01332487419830377</v>
+        <v>-0.0474036428225721</v>
       </c>
       <c r="I25">
-        <v>0.04793084073369553</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.0593441580859448</v>
+      </c>
+      <c r="J25">
+        <v>-0.06917799117034759</v>
+      </c>
+      <c r="K25">
+        <v>0.04965892940241367</v>
+      </c>
+      <c r="L25">
+        <v>0.03422964172172049</v>
+      </c>
+      <c r="M25">
+        <v>-0.07442663527788913</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>-0.03704186258554998</v>
+        <v>0.04207713675987284</v>
       </c>
       <c r="C26">
-        <v>0.02788021156276392</v>
+        <v>0.02326303598955673</v>
       </c>
       <c r="D26">
-        <v>-0.03894412308108273</v>
+        <v>-0.01400815659419038</v>
       </c>
       <c r="E26">
-        <v>0.0001298650734552026</v>
+        <v>0.001665869761481856</v>
       </c>
       <c r="F26">
-        <v>-0.006632967354017641</v>
+        <v>0.0382248113237442</v>
       </c>
       <c r="G26">
-        <v>-0.0347499652445062</v>
+        <v>-0.004834552942666162</v>
       </c>
       <c r="H26">
-        <v>-0.009280741008111703</v>
+        <v>-0.0412677111628182</v>
       </c>
       <c r="I26">
-        <v>0.01393290338416104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.01960870201356552</v>
+      </c>
+      <c r="J26">
+        <v>0.09415023430721196</v>
+      </c>
+      <c r="K26">
+        <v>-0.02985745462054779</v>
+      </c>
+      <c r="L26">
+        <v>-0.1288560634992553</v>
+      </c>
+      <c r="M26">
+        <v>0.02650200431720168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1489,271 +1813,391 @@
       <c r="I27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>-0.1229719015303843</v>
+        <v>0.1434782983364203</v>
       </c>
       <c r="C28">
-        <v>-0.2945736959515629</v>
+        <v>-0.2873829669582483</v>
       </c>
       <c r="D28">
-        <v>-0.02800130782947121</v>
+        <v>0.009435697365773087</v>
       </c>
       <c r="E28">
-        <v>-0.009900792877886592</v>
+        <v>0.02458420950267473</v>
       </c>
       <c r="F28">
-        <v>-0.06320313141799642</v>
+        <v>-0.00335817844103761</v>
       </c>
       <c r="G28">
-        <v>0.01494430120697846</v>
+        <v>0.01811152945176197</v>
       </c>
       <c r="H28">
-        <v>-0.0038395929491648</v>
+        <v>0.01690504479755009</v>
       </c>
       <c r="I28">
-        <v>0.08217465120196427</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.01286965098534461</v>
+      </c>
+      <c r="J28">
+        <v>-0.007058335675650255</v>
+      </c>
+      <c r="K28">
+        <v>-0.01381230008733351</v>
+      </c>
+      <c r="L28">
+        <v>-0.0471524982044173</v>
+      </c>
+      <c r="M28">
+        <v>0.03598921926529701</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>-0.04896286367664274</v>
+        <v>0.04480829928353808</v>
       </c>
       <c r="C29">
-        <v>0.01688062260133369</v>
+        <v>0.02297930062856946</v>
       </c>
       <c r="D29">
-        <v>-0.01370850135572474</v>
+        <v>-0.002109940013037687</v>
       </c>
       <c r="E29">
-        <v>0.02706883603130276</v>
+        <v>0.02108534208954909</v>
       </c>
       <c r="F29">
-        <v>0.002709316490856652</v>
+        <v>0.04827805817217727</v>
       </c>
       <c r="G29">
-        <v>-0.0133091106176211</v>
+        <v>-0.03561626495222286</v>
       </c>
       <c r="H29">
-        <v>0.03780271552004019</v>
+        <v>-0.05439906471494109</v>
       </c>
       <c r="I29">
-        <v>0.01035491424363747</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.02010943710894174</v>
+      </c>
+      <c r="J29">
+        <v>0.041391166414952</v>
+      </c>
+      <c r="K29">
+        <v>-0.0327509255420794</v>
+      </c>
+      <c r="L29">
+        <v>-0.03483679178972982</v>
+      </c>
+      <c r="M29">
+        <v>0.01748895849394852</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>-0.1179728089644892</v>
+        <v>0.09863364260259951</v>
       </c>
       <c r="C30">
-        <v>0.07637367990252794</v>
+        <v>0.06533626796259338</v>
       </c>
       <c r="D30">
-        <v>-0.06921092581000308</v>
+        <v>-0.001869547359628417</v>
       </c>
       <c r="E30">
-        <v>0.05385645537303668</v>
+        <v>0.03213244832490363</v>
       </c>
       <c r="F30">
-        <v>-0.03019230645890944</v>
+        <v>0.1745260454301677</v>
       </c>
       <c r="G30">
-        <v>-0.01441959957546063</v>
+        <v>-0.05660721314936742</v>
       </c>
       <c r="H30">
-        <v>0.003326213741901795</v>
+        <v>0.009823118705675461</v>
       </c>
       <c r="I30">
-        <v>0.08866964277972736</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.2907574237922601</v>
+      </c>
+      <c r="J30">
+        <v>0.02168026593791452</v>
+      </c>
+      <c r="K30">
+        <v>-0.02927384772811022</v>
+      </c>
+      <c r="L30">
+        <v>-0.2076599942703091</v>
+      </c>
+      <c r="M30">
+        <v>0.1269233053620348</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>-0.04524797548759548</v>
+        <v>0.03502572593222498</v>
       </c>
       <c r="C31">
-        <v>0.02575445283769302</v>
+        <v>0.0444173815288855</v>
       </c>
       <c r="D31">
-        <v>-0.002827497602002774</v>
+        <v>-0.005978124917854497</v>
       </c>
       <c r="E31">
-        <v>-0.00428428389158139</v>
+        <v>-0.003169752696506615</v>
       </c>
       <c r="F31">
-        <v>0.0005902020429390805</v>
+        <v>0.01407177487347742</v>
       </c>
       <c r="G31">
-        <v>-0.04589020774025826</v>
+        <v>-0.02943107617909255</v>
       </c>
       <c r="H31">
-        <v>-0.01196354749589295</v>
+        <v>-0.04646400836503734</v>
       </c>
       <c r="I31">
-        <v>-0.01227720558791503</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>-0.01260292809155183</v>
+      </c>
+      <c r="J31">
+        <v>-0.01119330981224843</v>
+      </c>
+      <c r="K31">
+        <v>-0.02954002560384589</v>
+      </c>
+      <c r="L31">
+        <v>-0.01724264096295275</v>
+      </c>
+      <c r="M31">
+        <v>-0.01626856553518569</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>-0.02242545390193489</v>
+        <v>0.04705198865898301</v>
       </c>
       <c r="C32">
-        <v>-0.005405938489894941</v>
+        <v>-0.00345755854467839</v>
       </c>
       <c r="D32">
-        <v>0.04264908689019584</v>
+        <v>0.0008421781156752175</v>
       </c>
       <c r="E32">
-        <v>0.07774255650218279</v>
+        <v>-0.005057328422965805</v>
       </c>
       <c r="F32">
-        <v>0.03655034604981831</v>
+        <v>0.08389556644104582</v>
       </c>
       <c r="G32">
-        <v>-0.02451593008888584</v>
+        <v>0.03803804642707882</v>
       </c>
       <c r="H32">
-        <v>-0.04354290920713685</v>
+        <v>-0.04562078290927169</v>
       </c>
       <c r="I32">
-        <v>0.08807035927998573</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>-0.05966823334132384</v>
+      </c>
+      <c r="J32">
+        <v>-0.03309099682271487</v>
+      </c>
+      <c r="K32">
+        <v>0.0008696348450599897</v>
+      </c>
+      <c r="L32">
+        <v>-0.05739324948351601</v>
+      </c>
+      <c r="M32">
+        <v>0.1215573025852874</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>-0.1010171353431412</v>
+        <v>0.09612222371490503</v>
       </c>
       <c r="C33">
-        <v>0.06128349906897981</v>
+        <v>0.06643090121191952</v>
       </c>
       <c r="D33">
-        <v>-0.006945780568887524</v>
+        <v>0.007843027682897474</v>
       </c>
       <c r="E33">
-        <v>0.001701369125655348</v>
+        <v>-0.01676473329473981</v>
       </c>
       <c r="F33">
-        <v>0.02616543059089887</v>
+        <v>0.06475353373349205</v>
       </c>
       <c r="G33">
-        <v>-0.03975921824481964</v>
+        <v>-0.03042715090333904</v>
       </c>
       <c r="H33">
-        <v>-0.02383047004086926</v>
+        <v>-0.05728183527715614</v>
       </c>
       <c r="I33">
-        <v>0.02197738411757053</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.02796310830298801</v>
+      </c>
+      <c r="J33">
+        <v>0.04027176032757311</v>
+      </c>
+      <c r="K33">
+        <v>-0.009206320959973327</v>
+      </c>
+      <c r="L33">
+        <v>-0.01216861089484572</v>
+      </c>
+      <c r="M33">
+        <v>-0.02830641768864099</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>-0.05112318508941528</v>
+        <v>0.0632332761214429</v>
       </c>
       <c r="C34">
-        <v>0.08104963967798429</v>
+        <v>0.06349212530062943</v>
       </c>
       <c r="D34">
-        <v>-0.02303753802787891</v>
+        <v>0.02594808654695326</v>
       </c>
       <c r="E34">
-        <v>0.03962026726807055</v>
+        <v>0.0108148482151106</v>
       </c>
       <c r="F34">
-        <v>0.02050423081851319</v>
+        <v>0.09768321020941896</v>
       </c>
       <c r="G34">
-        <v>-0.003146977226797649</v>
+        <v>-0.01726628951296508</v>
       </c>
       <c r="H34">
-        <v>-0.0174321332515689</v>
+        <v>-0.04883225127240652</v>
       </c>
       <c r="I34">
-        <v>0.05428052786134455</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.03854421193421418</v>
+      </c>
+      <c r="J34">
+        <v>-0.04504669296674982</v>
+      </c>
+      <c r="K34">
+        <v>0.0367144131788153</v>
+      </c>
+      <c r="L34">
+        <v>0.006070419300695416</v>
+      </c>
+      <c r="M34">
+        <v>-0.09037423382504943</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>-0.0368933672960173</v>
+        <v>0.0266876260123237</v>
       </c>
       <c r="C35">
-        <v>0.02958653740696262</v>
+        <v>0.02358907895215231</v>
       </c>
       <c r="D35">
-        <v>-0.009458464895292</v>
+        <v>-0.003278672555024566</v>
       </c>
       <c r="E35">
-        <v>0.02816152696287706</v>
+        <v>0.001254218263168946</v>
       </c>
       <c r="F35">
-        <v>0.01698793895006442</v>
+        <v>0.01736041684986507</v>
       </c>
       <c r="G35">
-        <v>-0.03486726456514255</v>
+        <v>-0.02361519878083164</v>
       </c>
       <c r="H35">
-        <v>-0.0239593828036344</v>
+        <v>-0.04064878895124874</v>
       </c>
       <c r="I35">
-        <v>0.03200068642391504</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.05042941745324445</v>
+      </c>
+      <c r="J35">
+        <v>-0.001536100180293453</v>
+      </c>
+      <c r="K35">
+        <v>0.02010722915873712</v>
+      </c>
+      <c r="L35">
+        <v>-0.05883313638365515</v>
+      </c>
+      <c r="M35">
+        <v>-0.0008641504880916502</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>-0.02699713676044882</v>
+        <v>0.03008577309129313</v>
       </c>
       <c r="C36">
-        <v>0.01628296418737372</v>
+        <v>0.01957303198539594</v>
       </c>
       <c r="D36">
-        <v>-0.02901438020471486</v>
+        <v>-0.01342779464261536</v>
       </c>
       <c r="E36">
-        <v>0.02182559668467225</v>
+        <v>0.0161462558567595</v>
       </c>
       <c r="F36">
-        <v>0.01119712681664532</v>
+        <v>0.05783205896528087</v>
       </c>
       <c r="G36">
-        <v>-0.02728092223733531</v>
+        <v>-0.01404161344589329</v>
       </c>
       <c r="H36">
-        <v>0.01083353028897776</v>
+        <v>-0.04288611604950824</v>
       </c>
       <c r="I36">
-        <v>0.0002622041683412445</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.03655696394826478</v>
+      </c>
+      <c r="J36">
+        <v>0.03235532723321798</v>
+      </c>
+      <c r="K36">
+        <v>-0.02383983773101742</v>
+      </c>
+      <c r="L36">
+        <v>-0.03808310452978997</v>
+      </c>
+      <c r="M36">
+        <v>-0.02884234896095264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1779,126 +2223,186 @@
       <c r="I37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>-0.04090742430496761</v>
+        <v>0.03198942249657667</v>
       </c>
       <c r="C38">
-        <v>0.03188010389287763</v>
+        <v>0.0473519959771286</v>
       </c>
       <c r="D38">
-        <v>0.02925831146549761</v>
+        <v>-0.02488907775880565</v>
       </c>
       <c r="E38">
-        <v>0.03683456014380014</v>
+        <v>-0.001430297239610115</v>
       </c>
       <c r="F38">
-        <v>0.002424199233185415</v>
+        <v>-0.04319663541448396</v>
       </c>
       <c r="G38">
-        <v>-0.002999516120194964</v>
+        <v>-0.04563126960677836</v>
       </c>
       <c r="H38">
-        <v>-0.04797016120649426</v>
+        <v>0.04634823167949598</v>
       </c>
       <c r="I38">
-        <v>0.02136657402025874</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>-0.0237697616573384</v>
+      </c>
+      <c r="J38">
+        <v>0.1071713462870414</v>
+      </c>
+      <c r="K38">
+        <v>0.06218146177598277</v>
+      </c>
+      <c r="L38">
+        <v>-0.07266453163094139</v>
+      </c>
+      <c r="M38">
+        <v>0.0849175045646625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>-0.09489628944274232</v>
+        <v>0.0964766658409605</v>
       </c>
       <c r="C39">
-        <v>0.1054281942885546</v>
+        <v>0.08964113580711504</v>
       </c>
       <c r="D39">
-        <v>-0.02032055327967876</v>
+        <v>0.07864532717289173</v>
       </c>
       <c r="E39">
-        <v>0.02713030043588889</v>
+        <v>-0.01676362698089287</v>
       </c>
       <c r="F39">
-        <v>0.02756564938071424</v>
+        <v>0.1540932699030398</v>
       </c>
       <c r="G39">
-        <v>0.03844416086122684</v>
+        <v>-0.08924578341043042</v>
       </c>
       <c r="H39">
-        <v>-0.05750348942606249</v>
+        <v>-0.004106137802436472</v>
       </c>
       <c r="I39">
-        <v>0.1617737574517937</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.1345438498042017</v>
+      </c>
+      <c r="J39">
+        <v>-0.1652977070909009</v>
+      </c>
+      <c r="K39">
+        <v>0.1095894548002609</v>
+      </c>
+      <c r="L39">
+        <v>-0.05338435318980083</v>
+      </c>
+      <c r="M39">
+        <v>0.02573444290651839</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>-0.05447961455274132</v>
+        <v>0.03759162764978562</v>
       </c>
       <c r="C40">
-        <v>0.03596694616698854</v>
+        <v>0.05571604565477683</v>
       </c>
       <c r="D40">
-        <v>0.03546288285852158</v>
+        <v>-0.0499163846094577</v>
       </c>
       <c r="E40">
-        <v>0.1344308912370521</v>
+        <v>-0.0006732155944748624</v>
       </c>
       <c r="F40">
-        <v>0.02715625624773192</v>
+        <v>0.122280477859884</v>
       </c>
       <c r="G40">
-        <v>-0.03079701726566924</v>
+        <v>0.06661883134635994</v>
       </c>
       <c r="H40">
-        <v>-0.06097039762978983</v>
+        <v>-0.01993592339650762</v>
       </c>
       <c r="I40">
-        <v>0.1784610936161159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.01218340816387938</v>
+      </c>
+      <c r="J40">
+        <v>0.09142967999231434</v>
+      </c>
+      <c r="K40">
+        <v>0.09557073594580105</v>
+      </c>
+      <c r="L40">
+        <v>-0.1194266515620283</v>
+      </c>
+      <c r="M40">
+        <v>0.01478491320850775</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>-0.04374346091872857</v>
+        <v>0.03599360746333705</v>
       </c>
       <c r="C41">
-        <v>0.05672877640620714</v>
+        <v>0.03711830103577099</v>
       </c>
       <c r="D41">
-        <v>-0.009080375646877796</v>
+        <v>0.01758897422662001</v>
       </c>
       <c r="E41">
-        <v>0.0009327535398879921</v>
+        <v>-0.004094705539249044</v>
       </c>
       <c r="F41">
-        <v>0.02135779187081542</v>
+        <v>0.01738968259656149</v>
       </c>
       <c r="G41">
-        <v>-0.01940959435441648</v>
+        <v>-0.02615994077806281</v>
       </c>
       <c r="H41">
-        <v>-0.02546340475104672</v>
+        <v>-0.00512019113325369</v>
       </c>
       <c r="I41">
-        <v>0.04173795553384431</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>-0.01240343523314903</v>
+      </c>
+      <c r="J41">
+        <v>0.01170209502306891</v>
+      </c>
+      <c r="K41">
+        <v>0.01120978833922196</v>
+      </c>
+      <c r="L41">
+        <v>-0.044568673592504</v>
+      </c>
+      <c r="M41">
+        <v>-0.02618109700126236</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1924,68 +2428,104 @@
       <c r="I42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>-0.05370294521396361</v>
+        <v>0.05053666286747016</v>
       </c>
       <c r="C43">
-        <v>0.04328510502585303</v>
+        <v>0.04746915807961055</v>
       </c>
       <c r="D43">
-        <v>-0.02602758250493848</v>
+        <v>-0.01300334863089569</v>
       </c>
       <c r="E43">
-        <v>0.01820626342274205</v>
+        <v>0.01353458394566869</v>
       </c>
       <c r="F43">
-        <v>-0.005013125264187664</v>
+        <v>0.01572801757708953</v>
       </c>
       <c r="G43">
-        <v>-0.02529668831354679</v>
+        <v>-0.05767635591625224</v>
       </c>
       <c r="H43">
-        <v>-0.04052681089813388</v>
+        <v>0.0009747801317912541</v>
       </c>
       <c r="I43">
-        <v>-0.01284537500330031</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.00257725815967263</v>
+      </c>
+      <c r="J43">
+        <v>-0.006227158181732799</v>
+      </c>
+      <c r="K43">
+        <v>0.004260483341835713</v>
+      </c>
+      <c r="L43">
+        <v>-0.03101094993353252</v>
+      </c>
+      <c r="M43">
+        <v>-0.02813690780482934</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>-0.05267919887860035</v>
+        <v>0.08087335906940241</v>
       </c>
       <c r="C44">
-        <v>0.02733363315880345</v>
+        <v>0.06021837142081496</v>
       </c>
       <c r="D44">
-        <v>-0.06329040609058632</v>
+        <v>-0.0681210169042232</v>
       </c>
       <c r="E44">
-        <v>0.1251141507733093</v>
+        <v>0.0910616501533708</v>
       </c>
       <c r="F44">
-        <v>0.03450535597918707</v>
+        <v>0.1587513909173313</v>
       </c>
       <c r="G44">
-        <v>0.005522509706221239</v>
+        <v>-0.002674384424540254</v>
       </c>
       <c r="H44">
-        <v>0.01392692949087405</v>
+        <v>-0.08638138922256357</v>
       </c>
       <c r="I44">
-        <v>0.1250131560998478</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.04973748943405105</v>
+      </c>
+      <c r="J44">
+        <v>0.01072584314241916</v>
+      </c>
+      <c r="K44">
+        <v>0.02704622335539905</v>
+      </c>
+      <c r="L44">
+        <v>-0.05992973478114173</v>
+      </c>
+      <c r="M44">
+        <v>0.03520340717103886</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2011,329 +2551,473 @@
       <c r="I45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>-0.01974774689415542</v>
+        <v>0.03511410244605607</v>
       </c>
       <c r="C46">
-        <v>0.04028426983391488</v>
+        <v>0.03879908982854144</v>
       </c>
       <c r="D46">
-        <v>-0.0153639453957614</v>
+        <v>-0.04729145154571893</v>
       </c>
       <c r="E46">
-        <v>0.04674701486667087</v>
+        <v>0.03695948135471123</v>
       </c>
       <c r="F46">
-        <v>-0.001379760332400605</v>
+        <v>0.01918817014231524</v>
       </c>
       <c r="G46">
-        <v>-0.001865688523390391</v>
+        <v>0.008317944750266294</v>
       </c>
       <c r="H46">
-        <v>0.002206592852426932</v>
+        <v>-0.06233960548030288</v>
       </c>
       <c r="I46">
-        <v>0.02321427995073872</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.0002260865605422029</v>
+      </c>
+      <c r="J46">
+        <v>0.0681305437590296</v>
+      </c>
+      <c r="K46">
+        <v>-0.03550407586859471</v>
+      </c>
+      <c r="L46">
+        <v>-0.05188540651126398</v>
+      </c>
+      <c r="M46">
+        <v>-0.001281211375227023</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>-0.02615504553828494</v>
+        <v>0.04540894632377759</v>
       </c>
       <c r="C47">
-        <v>0.0008704803309089407</v>
+        <v>0.02726992891642874</v>
       </c>
       <c r="D47">
-        <v>0.01010327593481822</v>
+        <v>-0.02139927762887007</v>
       </c>
       <c r="E47">
-        <v>0.06784106573528238</v>
+        <v>0.008452186144690394</v>
       </c>
       <c r="F47">
-        <v>0.01377808904423324</v>
+        <v>0.0279514750830896</v>
       </c>
       <c r="G47">
-        <v>-0.03416691724416904</v>
+        <v>-0.02798718782318894</v>
       </c>
       <c r="H47">
-        <v>0.02409063201261581</v>
+        <v>-0.02444192840311157</v>
       </c>
       <c r="I47">
-        <v>-0.01987124907532032</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.03156516524319106</v>
+      </c>
+      <c r="J47">
+        <v>0.0443493450608903</v>
+      </c>
+      <c r="K47">
+        <v>-0.01313138795321495</v>
+      </c>
+      <c r="L47">
+        <v>-0.01138718563916907</v>
+      </c>
+      <c r="M47">
+        <v>-0.04314885959052166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>-0.03216978376153418</v>
+        <v>0.04317835633117673</v>
       </c>
       <c r="C48">
-        <v>0.0239966602731184</v>
+        <v>0.01983582079226675</v>
       </c>
       <c r="D48">
-        <v>-0.00494022715246609</v>
+        <v>-0.01379385616577788</v>
       </c>
       <c r="E48">
-        <v>0.04620913510055061</v>
+        <v>0.002804472370519095</v>
       </c>
       <c r="F48">
-        <v>0.003342440090636151</v>
+        <v>0.06093253105857473</v>
       </c>
       <c r="G48">
-        <v>-0.04593167111406487</v>
+        <v>0.01934337233436645</v>
       </c>
       <c r="H48">
-        <v>-0.02548361204870954</v>
+        <v>-0.05464445037057578</v>
       </c>
       <c r="I48">
-        <v>0.0007280701560259146</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.03701257280654745</v>
+      </c>
+      <c r="J48">
+        <v>0.002016273909391747</v>
+      </c>
+      <c r="K48">
+        <v>-0.01092392429069145</v>
+      </c>
+      <c r="L48">
+        <v>-0.05097214160842339</v>
+      </c>
+      <c r="M48">
+        <v>-0.03366795154753692</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>-0.1890045657428732</v>
+        <v>0.2237077746058444</v>
       </c>
       <c r="C49">
-        <v>0.1306663670934459</v>
+        <v>0.0864206716832009</v>
       </c>
       <c r="D49">
-        <v>-0.08113792080295934</v>
+        <v>0.06599280062502288</v>
       </c>
       <c r="E49">
-        <v>-0.08110695355961531</v>
+        <v>0.02678191915226132</v>
       </c>
       <c r="F49">
-        <v>-0.1765138262985098</v>
+        <v>-0.2320082381382784</v>
       </c>
       <c r="G49">
-        <v>0.08568677255774934</v>
+        <v>0.1496745977172832</v>
       </c>
       <c r="H49">
-        <v>0.03840684607234739</v>
+        <v>0.04555402327310035</v>
       </c>
       <c r="I49">
-        <v>0.01332525157325838</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.09748773583363556</v>
+      </c>
+      <c r="J49">
+        <v>-0.05931124547811263</v>
+      </c>
+      <c r="K49">
+        <v>0.2026918582760223</v>
+      </c>
+      <c r="L49">
+        <v>0.1128568006392262</v>
+      </c>
+      <c r="M49">
+        <v>-0.03337885274559351</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>-0.05349654116057525</v>
+        <v>0.04376796209579466</v>
       </c>
       <c r="C50">
-        <v>0.0325986984232521</v>
+        <v>0.04235843293585653</v>
       </c>
       <c r="D50">
-        <v>-0.006483358706167594</v>
+        <v>-0.002751192154509245</v>
       </c>
       <c r="E50">
-        <v>0.02329914856545257</v>
+        <v>-0.007972841655363203</v>
       </c>
       <c r="F50">
-        <v>0.02439281038211769</v>
+        <v>0.03932442545342243</v>
       </c>
       <c r="G50">
-        <v>-0.06826697521879004</v>
+        <v>-0.03925063678719977</v>
       </c>
       <c r="H50">
-        <v>0.02620238651633157</v>
+        <v>-0.04130169391196199</v>
       </c>
       <c r="I50">
-        <v>-0.007132722801346318</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>0.01275514181248451</v>
+      </c>
+      <c r="J50">
+        <v>0.03118783942488836</v>
+      </c>
+      <c r="K50">
+        <v>-0.04684990382859758</v>
+      </c>
+      <c r="L50">
+        <v>-0.01896349800629328</v>
+      </c>
+      <c r="M50">
+        <v>0.03882855627946314</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>-0.02445333490415249</v>
+        <v>0.03061434982185841</v>
       </c>
       <c r="C51">
-        <v>0.01326440607965413</v>
+        <v>0.005693868935746734</v>
       </c>
       <c r="D51">
-        <v>0.009505142810364764</v>
+        <v>0.001953959811017337</v>
       </c>
       <c r="E51">
-        <v>0.01170339177163053</v>
+        <v>0.01657354794803326</v>
       </c>
       <c r="F51">
-        <v>-0.006070197697169574</v>
+        <v>-0.01781995130295159</v>
       </c>
       <c r="G51">
-        <v>0.02960378955192113</v>
+        <v>-0.001684655605717317</v>
       </c>
       <c r="H51">
-        <v>-0.001315981469419905</v>
+        <v>0.02488932374143499</v>
       </c>
       <c r="I51">
-        <v>0.03014521507432138</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.008959403150254425</v>
+      </c>
+      <c r="J51">
+        <v>-0.05726630436698221</v>
+      </c>
+      <c r="K51">
+        <v>0.0500898645247606</v>
+      </c>
+      <c r="L51">
+        <v>0.04978317948681521</v>
+      </c>
+      <c r="M51">
+        <v>-0.01270507328045428</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.009387410116525868</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.00323277981637038</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.01303395143192326</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.001087288536222061</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.009396795709742471</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.002639058307661247</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>-0.0004334761982538811</v>
       </c>
       <c r="I52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.00407168355940475</v>
+      </c>
+      <c r="J52">
+        <v>-0.02476776226803835</v>
+      </c>
+      <c r="K52">
+        <v>-0.01791073976172125</v>
+      </c>
+      <c r="L52">
+        <v>-0.007494655801440682</v>
+      </c>
+      <c r="M52">
+        <v>0.0187356652757793</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>-0.1666266326235279</v>
+        <v>0.1536180916543387</v>
       </c>
       <c r="C53">
-        <v>0.01730858806033815</v>
+        <v>0.04649274377428275</v>
       </c>
       <c r="D53">
-        <v>-0.0338213480085981</v>
+        <v>0.01389395649358226</v>
       </c>
       <c r="E53">
-        <v>-0.06236961114473927</v>
+        <v>-0.005595748111176564</v>
       </c>
       <c r="F53">
-        <v>0.2453712048608918</v>
+        <v>-0.06179648934971795</v>
       </c>
       <c r="G53">
-        <v>-0.1054713804464268</v>
+        <v>-0.2145252303748129</v>
       </c>
       <c r="H53">
-        <v>-0.02060722453574001</v>
+        <v>-0.0451661898632458</v>
       </c>
       <c r="I53">
-        <v>-0.04456828048052684</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>-0.1136184134694109</v>
+      </c>
+      <c r="J53">
+        <v>0.05337960247064035</v>
+      </c>
+      <c r="K53">
+        <v>-0.05416327156794828</v>
+      </c>
+      <c r="L53">
+        <v>0.06864741547047343</v>
+      </c>
+      <c r="M53">
+        <v>0.1049394735167469</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>-0.05066449592653618</v>
+        <v>0.05825029309147216</v>
       </c>
       <c r="C54">
-        <v>0.03614629709636339</v>
+        <v>0.03326344671879329</v>
       </c>
       <c r="D54">
-        <v>-0.03351476777080561</v>
+        <v>-0.02170795435905654</v>
       </c>
       <c r="E54">
-        <v>0.03234251069569375</v>
+        <v>0.02620535098857118</v>
       </c>
       <c r="F54">
-        <v>0.008286771618878513</v>
+        <v>0.1012497671496187</v>
       </c>
       <c r="G54">
-        <v>-0.01872437955475341</v>
+        <v>0.0225530304862825</v>
       </c>
       <c r="H54">
-        <v>-0.01195788843047493</v>
+        <v>-0.0654457340538479</v>
       </c>
       <c r="I54">
-        <v>-0.004908483732419469</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>-0.001648490748801092</v>
+      </c>
+      <c r="J54">
+        <v>0.05090886847852379</v>
+      </c>
+      <c r="K54">
+        <v>-0.1032554574619209</v>
+      </c>
+      <c r="L54">
+        <v>-0.08485705866571873</v>
+      </c>
+      <c r="M54">
+        <v>-0.03246874574627113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>-0.09217306534643478</v>
+        <v>0.08625638242786217</v>
       </c>
       <c r="C55">
-        <v>0.005139337686836459</v>
+        <v>0.03637266957383616</v>
       </c>
       <c r="D55">
-        <v>-0.03090422533701905</v>
+        <v>0.02532098674615521</v>
       </c>
       <c r="E55">
-        <v>0.0006673468869176421</v>
+        <v>0.007895377754655193</v>
       </c>
       <c r="F55">
-        <v>0.2077786974644842</v>
+        <v>0.00633375463416116</v>
       </c>
       <c r="G55">
-        <v>-0.1063142137152977</v>
+        <v>-0.1485768921378086</v>
       </c>
       <c r="H55">
-        <v>0.01480658973671429</v>
+        <v>-0.05167883743754926</v>
       </c>
       <c r="I55">
-        <v>-0.03085763849137471</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>-0.07148023339097034</v>
+      </c>
+      <c r="J55">
+        <v>0.03628085297760714</v>
+      </c>
+      <c r="K55">
+        <v>-0.02820475469376217</v>
+      </c>
+      <c r="L55">
+        <v>0.05291132653514543</v>
+      </c>
+      <c r="M55">
+        <v>0.05508971239612233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>-0.1675684327771543</v>
+        <v>0.1489412580324241</v>
       </c>
       <c r="C56">
-        <v>0.01573491620976341</v>
+        <v>0.06849012204647803</v>
       </c>
       <c r="D56">
-        <v>-0.05661268744531611</v>
+        <v>0.03105128134847604</v>
       </c>
       <c r="E56">
-        <v>-0.05409062130929217</v>
+        <v>0.01120739824896633</v>
       </c>
       <c r="F56">
-        <v>0.2166202538761459</v>
+        <v>-0.03531081325220612</v>
       </c>
       <c r="G56">
-        <v>-0.1064930951549634</v>
+        <v>-0.2156142530677587</v>
       </c>
       <c r="H56">
-        <v>-0.03304462509296313</v>
+        <v>-0.01638030523590106</v>
       </c>
       <c r="I56">
-        <v>-0.07436164669241296</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>-0.143122231705659</v>
+      </c>
+      <c r="J56">
+        <v>0.06160171834831837</v>
+      </c>
+      <c r="K56">
+        <v>-0.03598307190676602</v>
+      </c>
+      <c r="L56">
+        <v>0.05139424555341159</v>
+      </c>
+      <c r="M56">
+        <v>0.06814424690857597</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2359,1112 +3043,1580 @@
       <c r="I57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>-0.03991327205292534</v>
+        <v>0.03867906394868844</v>
       </c>
       <c r="C58">
-        <v>0.04385111912580791</v>
+        <v>0.03103779122152839</v>
       </c>
       <c r="D58">
-        <v>-0.01152889865488207</v>
+        <v>-0.08469330775197786</v>
       </c>
       <c r="E58">
-        <v>0.3296089163700702</v>
+        <v>0.033222917962619</v>
       </c>
       <c r="F58">
-        <v>-0.1961636089725169</v>
+        <v>0.03416902494909699</v>
       </c>
       <c r="G58">
-        <v>-0.08924905088753349</v>
+        <v>0.04769029206540268</v>
       </c>
       <c r="H58">
-        <v>0.1490284245397017</v>
+        <v>-0.04677616249622711</v>
       </c>
       <c r="I58">
-        <v>-0.01971725027158703</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.2871533155237039</v>
+      </c>
+      <c r="J58">
+        <v>-0.2449071688176179</v>
+      </c>
+      <c r="K58">
+        <v>-0.05908170543392301</v>
+      </c>
+      <c r="L58">
+        <v>0.009711939743822409</v>
+      </c>
+      <c r="M58">
+        <v>-0.307517003312037</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>-0.2512459683118135</v>
+        <v>0.2290768769994541</v>
       </c>
       <c r="C59">
-        <v>-0.4091232541331896</v>
+        <v>-0.301861148000737</v>
       </c>
       <c r="D59">
-        <v>-0.02369745426853265</v>
+        <v>0.04033100541059817</v>
       </c>
       <c r="E59">
-        <v>0.02660514791358119</v>
+        <v>0.005637289028861825</v>
       </c>
       <c r="F59">
-        <v>0.05212160012255247</v>
+        <v>0.0255979119718223</v>
       </c>
       <c r="G59">
-        <v>0.05108381940851795</v>
+        <v>-0.05280836678931802</v>
       </c>
       <c r="H59">
-        <v>-0.06844683604649071</v>
+        <v>0.01954570689563958</v>
       </c>
       <c r="I59">
-        <v>0.02863478335353771</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>-0.1255928944046346</v>
+      </c>
+      <c r="J59">
+        <v>-0.06504585484576271</v>
+      </c>
+      <c r="K59">
+        <v>0.03074861132092113</v>
+      </c>
+      <c r="L59">
+        <v>0.02357235744891549</v>
+      </c>
+      <c r="M59">
+        <v>-0.01102595307014709</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>-0.2476055569467758</v>
+        <v>0.2421877955018552</v>
       </c>
       <c r="C60">
-        <v>0.07733501574780216</v>
+        <v>0.118333398663599</v>
       </c>
       <c r="D60">
-        <v>-0.08503686933011716</v>
+        <v>0.06557258756968508</v>
       </c>
       <c r="E60">
-        <v>0.02275653785736487</v>
+        <v>0.03762326550504173</v>
       </c>
       <c r="F60">
-        <v>-0.05601925378887863</v>
+        <v>-0.1039914458895256</v>
       </c>
       <c r="G60">
-        <v>0.0596013703492802</v>
+        <v>0.0290008376924268</v>
       </c>
       <c r="H60">
-        <v>0.04737250866666918</v>
+        <v>0.1155490835961836</v>
       </c>
       <c r="I60">
-        <v>-0.08095154285968888</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>-0.003682598636754511</v>
+      </c>
+      <c r="J60">
+        <v>-0.0002025640276364871</v>
+      </c>
+      <c r="K60">
+        <v>-0.0142457025869027</v>
+      </c>
+      <c r="L60">
+        <v>0.1933965443301403</v>
+      </c>
+      <c r="M60">
+        <v>0.0204057165231442</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>-0.08209066020939008</v>
+        <v>0.09086378180531551</v>
       </c>
       <c r="C61">
-        <v>0.0601821469295579</v>
+        <v>0.06493533431016003</v>
       </c>
       <c r="D61">
-        <v>-0.02493093633644067</v>
+        <v>0.04192831895326707</v>
       </c>
       <c r="E61">
-        <v>0.003557738585771449</v>
+        <v>0.0130486705033235</v>
       </c>
       <c r="F61">
-        <v>0.0134089709145169</v>
+        <v>0.1168457943067035</v>
       </c>
       <c r="G61">
-        <v>-0.005057384893296614</v>
+        <v>-0.07492191143251735</v>
       </c>
       <c r="H61">
-        <v>-0.0265545100471205</v>
+        <v>-0.02791509187523645</v>
       </c>
       <c r="I61">
-        <v>0.08220643599308428</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>0.05532727184571215</v>
+      </c>
+      <c r="J61">
+        <v>-0.05913539758920844</v>
+      </c>
+      <c r="K61">
+        <v>0.04374231996053554</v>
+      </c>
+      <c r="L61">
+        <v>-0.0536383401078503</v>
+      </c>
+      <c r="M61">
+        <v>0.01042001006448091</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>-0.1687558286765192</v>
+        <v>0.1458802721314932</v>
       </c>
       <c r="C62">
-        <v>0.05877930625532805</v>
+        <v>0.07736356483183462</v>
       </c>
       <c r="D62">
-        <v>-0.03379270626500686</v>
+        <v>0.03113588274117273</v>
       </c>
       <c r="E62">
-        <v>-0.09602959817627835</v>
+        <v>-0.0235019926044141</v>
       </c>
       <c r="F62">
-        <v>0.2525776716562341</v>
+        <v>-0.02059766725870038</v>
       </c>
       <c r="G62">
-        <v>-0.05964614365158154</v>
+        <v>-0.1604021429687752</v>
       </c>
       <c r="H62">
-        <v>-0.04496404880974126</v>
+        <v>-0.05943974322595194</v>
       </c>
       <c r="I62">
-        <v>-0.01716925879679849</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>-0.1285936282126342</v>
+      </c>
+      <c r="J62">
+        <v>0.1428019837051072</v>
+      </c>
+      <c r="K62">
+        <v>-0.03846541079095406</v>
+      </c>
+      <c r="L62">
+        <v>0.06229140291943819</v>
+      </c>
+      <c r="M62">
+        <v>0.06539767614291593</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>-0.04358773998203612</v>
+        <v>0.04479498603442248</v>
       </c>
       <c r="C63">
-        <v>0.04069661030789747</v>
+        <v>0.02703279193083461</v>
       </c>
       <c r="D63">
-        <v>-0.02233626954160821</v>
+        <v>0.005309069249036659</v>
       </c>
       <c r="E63">
-        <v>0.01385872415340706</v>
+        <v>-0.008971201707522067</v>
       </c>
       <c r="F63">
-        <v>0.02908240977574514</v>
+        <v>0.05964590644111341</v>
       </c>
       <c r="G63">
-        <v>-0.03247283237572005</v>
+        <v>-0.01151159514637233</v>
       </c>
       <c r="H63">
-        <v>0.05376395935324118</v>
+        <v>-0.03439692093192616</v>
       </c>
       <c r="I63">
-        <v>0.01275800490363015</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.05003268616427408</v>
+      </c>
+      <c r="J63">
+        <v>0.01603999015205805</v>
+      </c>
+      <c r="K63">
+        <v>-0.03646873524259932</v>
+      </c>
+      <c r="L63">
+        <v>-0.01321650212072899</v>
+      </c>
+      <c r="M63">
+        <v>0.001943113336842239</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>-0.10192147815289</v>
+        <v>0.1005319345817801</v>
       </c>
       <c r="C64">
-        <v>0.03768123839757493</v>
+        <v>0.05005443536955544</v>
       </c>
       <c r="D64">
-        <v>-0.03677858173990661</v>
+        <v>-0.004621065004732209</v>
       </c>
       <c r="E64">
-        <v>0.0374084703466471</v>
+        <v>0.03455946793876022</v>
       </c>
       <c r="F64">
-        <v>-0.01939625085068145</v>
+        <v>0.06342185962773118</v>
       </c>
       <c r="G64">
-        <v>0.001063645326422732</v>
+        <v>-0.01499343524219349</v>
       </c>
       <c r="H64">
-        <v>-0.0006876191339390546</v>
+        <v>0.006597499942507076</v>
       </c>
       <c r="I64">
-        <v>0.09045438530630301</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.08384124913720101</v>
+      </c>
+      <c r="J64">
+        <v>-0.006599540287327065</v>
+      </c>
+      <c r="K64">
+        <v>0.004953441241717772</v>
+      </c>
+      <c r="L64">
+        <v>-0.04924850059788796</v>
+      </c>
+      <c r="M64">
+        <v>0.04260621101786857</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>-0.1297114608471976</v>
+        <v>0.1266939491355324</v>
       </c>
       <c r="C65">
-        <v>0.06128966425942144</v>
+        <v>0.0466677608926753</v>
       </c>
       <c r="D65">
-        <v>-0.05607566113143982</v>
+        <v>0.008768416218561453</v>
       </c>
       <c r="E65">
-        <v>0.1426879437540126</v>
+        <v>0.01123419613433517</v>
       </c>
       <c r="F65">
-        <v>-0.1339707514130002</v>
+        <v>0.04360314211874801</v>
       </c>
       <c r="G65">
-        <v>-0.02785626747204232</v>
+        <v>0.1635693822410727</v>
       </c>
       <c r="H65">
-        <v>0.5013296053390092</v>
+        <v>0.08592728447745934</v>
       </c>
       <c r="I65">
-        <v>-0.4395951175470535</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.211491775813621</v>
+      </c>
+      <c r="J65">
+        <v>0.2628672217722389</v>
+      </c>
+      <c r="K65">
+        <v>-0.5122932240032773</v>
+      </c>
+      <c r="L65">
+        <v>0.3217060771099094</v>
+      </c>
+      <c r="M65">
+        <v>-0.01749270552403899</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>-0.1563358561925023</v>
+        <v>0.1248865256927581</v>
       </c>
       <c r="C66">
-        <v>0.1549666857952774</v>
+        <v>0.1325730744519342</v>
       </c>
       <c r="D66">
-        <v>-0.05110433777636898</v>
+        <v>0.1016223195848932</v>
       </c>
       <c r="E66">
-        <v>-0.01512114540060367</v>
+        <v>-0.02663131918551411</v>
       </c>
       <c r="F66">
-        <v>0.05213301555140326</v>
+        <v>0.1700280530669792</v>
       </c>
       <c r="G66">
-        <v>0.07852207994304128</v>
+        <v>-0.09222802634952187</v>
       </c>
       <c r="H66">
-        <v>-0.1062772926351266</v>
+        <v>-0.01970722609776478</v>
       </c>
       <c r="I66">
-        <v>0.3386478416233613</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>0.1157981071283523</v>
+      </c>
+      <c r="J66">
+        <v>-0.1541808561758939</v>
+      </c>
+      <c r="K66">
+        <v>0.1862282735509093</v>
+      </c>
+      <c r="L66">
+        <v>-0.06983407412426343</v>
+      </c>
+      <c r="M66">
+        <v>0.06276065963978791</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>-0.07492330632600977</v>
+        <v>0.08019709721771914</v>
       </c>
       <c r="C67">
-        <v>0.04917291792352049</v>
+        <v>0.06158948731563407</v>
       </c>
       <c r="D67">
-        <v>-0.01070112926813706</v>
+        <v>-0.01580292817736265</v>
       </c>
       <c r="E67">
-        <v>0.004787572874704937</v>
+        <v>0.02077075108543934</v>
       </c>
       <c r="F67">
-        <v>-0.005454745115696287</v>
+        <v>-0.02949266664964192</v>
       </c>
       <c r="G67">
-        <v>0.01001101147412086</v>
+        <v>-0.08291427184095639</v>
       </c>
       <c r="H67">
-        <v>-0.05611686017325945</v>
+        <v>0.08155907559268626</v>
       </c>
       <c r="I67">
-        <v>0.02841515153589814</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>-0.04009622884982156</v>
+      </c>
+      <c r="J67">
+        <v>0.07355577480691078</v>
+      </c>
+      <c r="K67">
+        <v>0.09951460218510105</v>
+      </c>
+      <c r="L67">
+        <v>-0.05088212004730125</v>
+      </c>
+      <c r="M67">
+        <v>0.05204944001315071</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>-0.1080131249844126</v>
+        <v>0.1230244595766512</v>
       </c>
       <c r="C68">
-        <v>-0.2677425161724256</v>
+        <v>-0.2734592727944898</v>
       </c>
       <c r="D68">
-        <v>0.004462889398250605</v>
+        <v>0.006181572001793784</v>
       </c>
       <c r="E68">
-        <v>0.01439634947081697</v>
+        <v>0.001419185324778138</v>
       </c>
       <c r="F68">
-        <v>0.017383467114655</v>
+        <v>0.02326533213139283</v>
       </c>
       <c r="G68">
-        <v>-0.04200534731297359</v>
+        <v>-0.03168121774944376</v>
       </c>
       <c r="H68">
-        <v>0.0113584377246302</v>
+        <v>-0.0143863245546535</v>
       </c>
       <c r="I68">
-        <v>-0.01526638336191721</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.04439129796803191</v>
+      </c>
+      <c r="J68">
+        <v>0.02051358380733944</v>
+      </c>
+      <c r="K68">
+        <v>-0.0589084492666607</v>
+      </c>
+      <c r="L68">
+        <v>-0.0006656320542173214</v>
+      </c>
+      <c r="M68">
+        <v>0.02666181547313097</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>-0.04011203882123541</v>
+        <v>0.04338576253229988</v>
       </c>
       <c r="C69">
-        <v>0.0290281619431428</v>
+        <v>0.02218429579007157</v>
       </c>
       <c r="D69">
-        <v>-0.006523263800337299</v>
+        <v>-0.01074913710413859</v>
       </c>
       <c r="E69">
-        <v>0.01473051597069333</v>
+        <v>-0.003697323268417598</v>
       </c>
       <c r="F69">
-        <v>0.04294543208994894</v>
+        <v>0.01062577504002311</v>
       </c>
       <c r="G69">
-        <v>0.01561378776239476</v>
+        <v>-0.03917899645427942</v>
       </c>
       <c r="H69">
-        <v>-0.0173612834952635</v>
+        <v>0.008316587805169652</v>
       </c>
       <c r="I69">
-        <v>-0.02826573331000531</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>-0.005180806822571733</v>
+      </c>
+      <c r="J69">
+        <v>0.02940148119806109</v>
+      </c>
+      <c r="K69">
+        <v>0.01937746764529012</v>
+      </c>
+      <c r="L69">
+        <v>0.005542184150465125</v>
+      </c>
+      <c r="M69">
+        <v>-0.06063130178364341</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>-0.04370741976340056</v>
+        <v>0.05347674654256833</v>
       </c>
       <c r="C70">
-        <v>0.003781504211530048</v>
+        <v>0.03548630497092917</v>
       </c>
       <c r="D70">
-        <v>-0.02390800823527006</v>
+        <v>0.02370684700007031</v>
       </c>
       <c r="E70">
-        <v>-0.03580901187756266</v>
+        <v>0.01279931116796918</v>
       </c>
       <c r="F70">
-        <v>-0.120321549540142</v>
+        <v>-0.007375224178851691</v>
       </c>
       <c r="G70">
-        <v>0.03761512288316121</v>
+        <v>0.07551788080401894</v>
       </c>
       <c r="H70">
-        <v>-0.02901158461040506</v>
+        <v>0.01088798912259692</v>
       </c>
       <c r="I70">
-        <v>-0.02230529969210798</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>-0.05774286997368849</v>
+      </c>
+      <c r="J70">
+        <v>0.1676573018298674</v>
+      </c>
+      <c r="K70">
+        <v>-0.0362124242331163</v>
+      </c>
+      <c r="L70">
+        <v>-0.261897887604078</v>
+      </c>
+      <c r="M70">
+        <v>-0.1793934798072603</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>-0.1101400949513296</v>
+        <v>0.1362764373101333</v>
       </c>
       <c r="C71">
-        <v>-0.2777215005623216</v>
+        <v>-0.281484729571575</v>
       </c>
       <c r="D71">
-        <v>-0.02299112788052033</v>
+        <v>0.009308883469536821</v>
       </c>
       <c r="E71">
-        <v>0.001367132096700379</v>
+        <v>0.02000088117086896</v>
       </c>
       <c r="F71">
-        <v>-0.01153561711774512</v>
+        <v>0.0271597895773679</v>
       </c>
       <c r="G71">
-        <v>-0.03619566081203981</v>
+        <v>-0.03282379066599048</v>
       </c>
       <c r="H71">
-        <v>0.005394104427104561</v>
+        <v>-0.01159875571236667</v>
       </c>
       <c r="I71">
-        <v>0.02233742243260758</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>0.04732629937478288</v>
+      </c>
+      <c r="J71">
+        <v>0.007955069100307504</v>
+      </c>
+      <c r="K71">
+        <v>-0.008028887938239046</v>
+      </c>
+      <c r="L71">
+        <v>0.001778780037792346</v>
+      </c>
+      <c r="M71">
+        <v>0.0190051897374299</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>-0.1836061296964547</v>
+        <v>0.1439201247326634</v>
       </c>
       <c r="C72">
-        <v>0.0508011141971273</v>
+        <v>0.03566392915855413</v>
       </c>
       <c r="D72">
-        <v>0.2175255677967365</v>
+        <v>-0.002931086037342602</v>
       </c>
       <c r="E72">
-        <v>-0.02845372589487047</v>
+        <v>-0.182290948284568</v>
       </c>
       <c r="F72">
-        <v>0.0431335092658393</v>
+        <v>0.05370304669807052</v>
       </c>
       <c r="G72">
-        <v>0.06940926693054665</v>
+        <v>-0.009248608484044808</v>
       </c>
       <c r="H72">
-        <v>0.1238117915338844</v>
+        <v>0.05501785734362535</v>
       </c>
       <c r="I72">
-        <v>-0.04974681060937488</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>-0.02496678532787464</v>
+      </c>
+      <c r="J72">
+        <v>0.08166366611028723</v>
+      </c>
+      <c r="K72">
+        <v>-0.08658358217272413</v>
+      </c>
+      <c r="L72">
+        <v>0.127638247704812</v>
+      </c>
+      <c r="M72">
+        <v>0.008976664423396034</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>-0.2628019923385446</v>
+        <v>0.2370923718811734</v>
       </c>
       <c r="C73">
-        <v>0.1885502656103117</v>
+        <v>0.1579709981568501</v>
       </c>
       <c r="D73">
-        <v>-0.1418623216769735</v>
+        <v>0.1588848149949627</v>
       </c>
       <c r="E73">
-        <v>-0.04684896310957264</v>
+        <v>0.09098558991232315</v>
       </c>
       <c r="F73">
-        <v>-0.1857889891941699</v>
+        <v>-0.3959787084756574</v>
       </c>
       <c r="G73">
-        <v>-0.023787559649734</v>
+        <v>0.1123714922916196</v>
       </c>
       <c r="H73">
-        <v>0.21016375071414</v>
+        <v>0.2172492650409887</v>
       </c>
       <c r="I73">
-        <v>0.008291609083578146</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.2919555273059175</v>
+      </c>
+      <c r="J73">
+        <v>-0.1155486023009907</v>
+      </c>
+      <c r="K73">
+        <v>0.2971429708610185</v>
+      </c>
+      <c r="L73">
+        <v>0.2511714757178498</v>
+      </c>
+      <c r="M73">
+        <v>0.1389801533613058</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>-0.09207351447632962</v>
+        <v>0.08990618725517148</v>
       </c>
       <c r="C74">
-        <v>0.03120517370622515</v>
+        <v>0.06878999132164974</v>
       </c>
       <c r="D74">
-        <v>-0.02526845640275331</v>
+        <v>0.009988971058653741</v>
       </c>
       <c r="E74">
-        <v>-0.01481022940701119</v>
+        <v>-0.005743452815099054</v>
       </c>
       <c r="F74">
-        <v>0.1276965620000103</v>
+        <v>-0.0306332950951422</v>
       </c>
       <c r="G74">
-        <v>-0.1215819399765562</v>
+        <v>-0.1499923256647802</v>
       </c>
       <c r="H74">
-        <v>0.03988649748292435</v>
+        <v>-0.02827688217672446</v>
       </c>
       <c r="I74">
-        <v>-0.01617667444816196</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>-0.002967546193903105</v>
+      </c>
+      <c r="J74">
+        <v>0.03984329650489112</v>
+      </c>
+      <c r="K74">
+        <v>0.005915664741078541</v>
+      </c>
+      <c r="L74">
+        <v>0.0469267516710278</v>
+      </c>
+      <c r="M74">
+        <v>0.04392161314416561</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>-0.09906569916872705</v>
+        <v>0.09173853484509473</v>
       </c>
       <c r="C75">
-        <v>0.01773062270544465</v>
+        <v>0.04940471196949152</v>
       </c>
       <c r="D75">
-        <v>-0.02640658205766206</v>
+        <v>0.009146577003256757</v>
       </c>
       <c r="E75">
-        <v>-0.02636209042704341</v>
+        <v>-0.007974141014349121</v>
       </c>
       <c r="F75">
-        <v>0.1042015736037777</v>
+        <v>-0.02411440039434941</v>
       </c>
       <c r="G75">
-        <v>-0.02237764287358416</v>
+        <v>-0.1046650880389516</v>
       </c>
       <c r="H75">
-        <v>-0.04774464400913992</v>
+        <v>-0.0147275255749513</v>
       </c>
       <c r="I75">
-        <v>-0.1131463475454536</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>-0.1021901431856759</v>
+      </c>
+      <c r="J75">
+        <v>0.01735320468846017</v>
+      </c>
+      <c r="K75">
+        <v>-0.01364260754111798</v>
+      </c>
+      <c r="L75">
+        <v>0.02080286009107515</v>
+      </c>
+      <c r="M75">
+        <v>-0.05982400517144424</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>-0.1276526977422322</v>
+        <v>0.0972601348300291</v>
       </c>
       <c r="C76">
-        <v>0.03629106288394332</v>
+        <v>0.06912705648561462</v>
       </c>
       <c r="D76">
-        <v>-0.02499042835815723</v>
+        <v>0.004635989219267369</v>
       </c>
       <c r="E76">
-        <v>-0.002855775101725029</v>
+        <v>0.01262722432304559</v>
       </c>
       <c r="F76">
-        <v>0.2238057183362008</v>
+        <v>-0.05206346008091926</v>
       </c>
       <c r="G76">
-        <v>-0.1108691451669047</v>
+        <v>-0.197494083621136</v>
       </c>
       <c r="H76">
-        <v>-0.01030384610993583</v>
+        <v>-0.04293100192107468</v>
       </c>
       <c r="I76">
-        <v>-0.09519307215396701</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>-0.1058823034839804</v>
+      </c>
+      <c r="J76">
+        <v>0.04040749828663149</v>
+      </c>
+      <c r="K76">
+        <v>-0.03861130164899419</v>
+      </c>
+      <c r="L76">
+        <v>0.04132002283136135</v>
+      </c>
+      <c r="M76">
+        <v>0.127422830795467</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>-0.08151320583607753</v>
+        <v>0.07324631512268386</v>
       </c>
       <c r="C77">
-        <v>0.03592621134253435</v>
+        <v>0.02097722459380781</v>
       </c>
       <c r="D77">
-        <v>0.02671516212485266</v>
+        <v>0.003650874329226795</v>
       </c>
       <c r="E77">
-        <v>0.3143818551657903</v>
+        <v>0.03884808222411946</v>
       </c>
       <c r="F77">
-        <v>0.2244822246641312</v>
+        <v>0.4724078408348665</v>
       </c>
       <c r="G77">
-        <v>0.7776569024597404</v>
+        <v>0.188701360840517</v>
       </c>
       <c r="H77">
-        <v>0.04373133022406932</v>
+        <v>0.6593698054024051</v>
       </c>
       <c r="I77">
-        <v>0.05071591032335598</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>-0.2697330396374886</v>
+      </c>
+      <c r="J77">
+        <v>0.08633553382793949</v>
+      </c>
+      <c r="K77">
+        <v>0.1634205318594375</v>
+      </c>
+      <c r="L77">
+        <v>0.04765985388447765</v>
+      </c>
+      <c r="M77">
+        <v>0.1329034918590383</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>-0.1320436563049372</v>
+        <v>0.1716698024375948</v>
       </c>
       <c r="C78">
-        <v>0.09147630369431999</v>
+        <v>0.1208987195310694</v>
       </c>
       <c r="D78">
-        <v>-0.019797880959976</v>
+        <v>-0.1724332020346347</v>
       </c>
       <c r="E78">
-        <v>0.1421900861437214</v>
+        <v>0.1122062129033306</v>
       </c>
       <c r="F78">
-        <v>-0.06500491239328757</v>
+        <v>0.1073667189702627</v>
       </c>
       <c r="G78">
-        <v>-0.02976660012878827</v>
+        <v>0.2962456785977811</v>
       </c>
       <c r="H78">
-        <v>-0.06549680732968408</v>
+        <v>-0.22811883663413</v>
       </c>
       <c r="I78">
-        <v>0.08266108050371641</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>-0.3999124621091302</v>
+      </c>
+      <c r="J78">
+        <v>-0.6017494515879658</v>
+      </c>
+      <c r="K78">
+        <v>-0.2030528463698059</v>
+      </c>
+      <c r="L78">
+        <v>0.192752708225754</v>
+      </c>
+      <c r="M78">
+        <v>0.08597149045192512</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>-0.1422444486037012</v>
+        <v>0.1351520284323085</v>
       </c>
       <c r="C79">
-        <v>0.05397745110051486</v>
+        <v>0.07388096640356352</v>
       </c>
       <c r="D79">
-        <v>-0.03677797423273461</v>
+        <v>0.00341789038639784</v>
       </c>
       <c r="E79">
-        <v>-0.04055747865387359</v>
+        <v>0.004614172792948939</v>
       </c>
       <c r="F79">
-        <v>0.1590322515034479</v>
+        <v>-0.001393673733661332</v>
       </c>
       <c r="G79">
-        <v>-0.04742765239898442</v>
+        <v>-0.157247170524232</v>
       </c>
       <c r="H79">
-        <v>-0.05526039197851151</v>
+        <v>-0.02601490647124926</v>
       </c>
       <c r="I79">
-        <v>-0.08614969101752909</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>-0.09466137171408866</v>
+      </c>
+      <c r="J79">
+        <v>0.08781900860354755</v>
+      </c>
+      <c r="K79">
+        <v>-0.01878616330762566</v>
+      </c>
+      <c r="L79">
+        <v>0.04553671818469691</v>
+      </c>
+      <c r="M79">
+        <v>0.01352791516163256</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>-0.02667157988802716</v>
+        <v>0.05578865359265586</v>
       </c>
       <c r="C80">
-        <v>-0.00111414761495682</v>
+        <v>0.02285561610264763</v>
       </c>
       <c r="D80">
-        <v>-0.005088044416713133</v>
+        <v>0.06337552816339641</v>
       </c>
       <c r="E80">
-        <v>-0.02958525708710939</v>
+        <v>0.005042116381457351</v>
       </c>
       <c r="F80">
-        <v>-0.008958780721780397</v>
+        <v>0.005175475144105035</v>
       </c>
       <c r="G80">
-        <v>0.0009290834867887089</v>
+        <v>0.02133581325193385</v>
       </c>
       <c r="H80">
-        <v>0.08841332661061874</v>
+        <v>-0.0836254382982581</v>
       </c>
       <c r="I80">
-        <v>0.01127404208836334</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>0.1250898911330091</v>
+      </c>
+      <c r="J80">
+        <v>-0.02348816378617019</v>
+      </c>
+      <c r="K80">
+        <v>-0.05624339829087027</v>
+      </c>
+      <c r="L80">
+        <v>-0.07727768458424372</v>
+      </c>
+      <c r="M80">
+        <v>0.03055084647459297</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>-0.1137265526812372</v>
+        <v>0.1187219179573574</v>
       </c>
       <c r="C81">
-        <v>0.05236778830861776</v>
+        <v>0.05158998195728981</v>
       </c>
       <c r="D81">
-        <v>-0.04250476101943152</v>
+        <v>0.001761895323034805</v>
       </c>
       <c r="E81">
-        <v>-0.03253846328531752</v>
+        <v>0.009415909116138379</v>
       </c>
       <c r="F81">
-        <v>0.09845549179488762</v>
+        <v>0.007664324551784126</v>
       </c>
       <c r="G81">
-        <v>-0.03628592170068337</v>
+        <v>-0.1412669483310904</v>
       </c>
       <c r="H81">
-        <v>-0.01647147744769971</v>
+        <v>-0.06082001660493096</v>
       </c>
       <c r="I81">
-        <v>-0.04611629200746215</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>-0.08080410176233722</v>
+      </c>
+      <c r="J81">
+        <v>0.03390538457166423</v>
+      </c>
+      <c r="K81">
+        <v>0.03181583199618644</v>
+      </c>
+      <c r="L81">
+        <v>0.01755350863201372</v>
+      </c>
+      <c r="M81">
+        <v>-0.06806866769553628</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>-0.1088515363891087</v>
+        <v>0.1180785681125108</v>
       </c>
       <c r="C82">
-        <v>0.03138915984602646</v>
+        <v>0.0522300719113636</v>
       </c>
       <c r="D82">
-        <v>-0.06497137768409321</v>
+        <v>0.02267082247474129</v>
       </c>
       <c r="E82">
-        <v>-0.08146162878632091</v>
+        <v>-0.001440266937540785</v>
       </c>
       <c r="F82">
-        <v>0.2510960251165907</v>
+        <v>-0.03457846849057094</v>
       </c>
       <c r="G82">
-        <v>-0.09425253082816738</v>
+        <v>-0.2263725066441683</v>
       </c>
       <c r="H82">
-        <v>-0.0637627107172133</v>
+        <v>-0.06209622955584092</v>
       </c>
       <c r="I82">
-        <v>-0.06375393464647879</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>-0.1065617306091493</v>
+      </c>
+      <c r="J82">
+        <v>0.0737371990061018</v>
+      </c>
+      <c r="K82">
+        <v>0.01797110623924867</v>
+      </c>
+      <c r="L82">
+        <v>-0.03553268573814576</v>
+      </c>
+      <c r="M82">
+        <v>0.01675746359461844</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>-0.05504005411231201</v>
+        <v>0.07676508194498299</v>
       </c>
       <c r="C83">
-        <v>0.03416997638825999</v>
+        <v>0.06409506193573532</v>
       </c>
       <c r="D83">
-        <v>-0.04087694109104473</v>
+        <v>0.01356533537903185</v>
       </c>
       <c r="E83">
-        <v>-0.02770481354552741</v>
+        <v>0.008070008428895183</v>
       </c>
       <c r="F83">
-        <v>-0.07928824955813084</v>
+        <v>-0.005122027453488846</v>
       </c>
       <c r="G83">
-        <v>0.05071920551981231</v>
+        <v>-0.02480149173298894</v>
       </c>
       <c r="H83">
-        <v>-0.06705376741457515</v>
+        <v>0.04786775932043812</v>
       </c>
       <c r="I83">
-        <v>0.0386493947880565</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>0.05305041578478521</v>
+      </c>
+      <c r="J83">
+        <v>-0.009279258275647221</v>
+      </c>
+      <c r="K83">
+        <v>-0.001726209861893301</v>
+      </c>
+      <c r="L83">
+        <v>-0.1394190660619205</v>
+      </c>
+      <c r="M83">
+        <v>-0.01891408680097173</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>-0.04776816103799821</v>
+        <v>0.04447036499071994</v>
       </c>
       <c r="C84">
-        <v>0.03198090172611926</v>
+        <v>-0.02053369928288278</v>
       </c>
       <c r="D84">
-        <v>0.03329625022700451</v>
+        <v>0.00517770446458128</v>
       </c>
       <c r="E84">
-        <v>-0.007593405093224153</v>
+        <v>-0.02081895906980495</v>
       </c>
       <c r="F84">
-        <v>-0.03051754836950939</v>
+        <v>0.005370274053435349</v>
       </c>
       <c r="G84">
-        <v>-0.1379492496646093</v>
+        <v>0.2122624738403933</v>
       </c>
       <c r="H84">
-        <v>-0.01737268050337644</v>
+        <v>-0.2187000793528932</v>
       </c>
       <c r="I84">
-        <v>0.03369334992107813</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.07975565751337167</v>
+      </c>
+      <c r="J84">
+        <v>0.02225332343968273</v>
+      </c>
+      <c r="K84">
+        <v>0.06558557004390385</v>
+      </c>
+      <c r="L84">
+        <v>-0.1476175626036662</v>
+      </c>
+      <c r="M84">
+        <v>0.5828945045794796</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>-0.08099361283916059</v>
+        <v>0.1081000480916824</v>
       </c>
       <c r="C85">
-        <v>0.0434614968512279</v>
+        <v>0.05199173533235216</v>
       </c>
       <c r="D85">
-        <v>-0.05999099140040955</v>
+        <v>0.01443019728281158</v>
       </c>
       <c r="E85">
-        <v>-0.006507212068023746</v>
+        <v>0.03336142949006468</v>
       </c>
       <c r="F85">
-        <v>0.1839552419029428</v>
+        <v>0.00362708565040743</v>
       </c>
       <c r="G85">
-        <v>-0.05817044833079215</v>
+        <v>-0.1662712065402506</v>
       </c>
       <c r="H85">
-        <v>0.0003133191898740973</v>
+        <v>-0.03886270356748001</v>
       </c>
       <c r="I85">
-        <v>-0.05066451135437097</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>-0.08765140754324403</v>
+      </c>
+      <c r="J85">
+        <v>0.0787561009350532</v>
+      </c>
+      <c r="K85">
+        <v>-0.01223685774128544</v>
+      </c>
+      <c r="L85">
+        <v>0.05916011098103834</v>
+      </c>
+      <c r="M85">
+        <v>-0.002182560514342769</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>-0.03705593375140716</v>
+        <v>0.06964169458290051</v>
       </c>
       <c r="C86">
-        <v>0.04451569709502955</v>
+        <v>0.01938773715900786</v>
       </c>
       <c r="D86">
-        <v>-0.003909891397886362</v>
+        <v>-0.008966959001763966</v>
       </c>
       <c r="E86">
-        <v>0.0411431844339635</v>
+        <v>0.08912379128798988</v>
       </c>
       <c r="F86">
-        <v>-0.04110893150134658</v>
+        <v>0.03731193605841865</v>
       </c>
       <c r="G86">
-        <v>0.05130437274609222</v>
+        <v>0.4156890349835183</v>
       </c>
       <c r="H86">
-        <v>0.1080021237866957</v>
+        <v>-0.4416698121872173</v>
       </c>
       <c r="I86">
-        <v>-0.03630144388560134</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>-0.1981389183183282</v>
+      </c>
+      <c r="J86">
+        <v>0.4332365591691542</v>
+      </c>
+      <c r="K86">
+        <v>0.3548352967561917</v>
+      </c>
+      <c r="L86">
+        <v>0.1669940807919271</v>
+      </c>
+      <c r="M86">
+        <v>-0.03707887845466867</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>-0.09066009561506876</v>
+        <v>0.1096670344849627</v>
       </c>
       <c r="C87">
-        <v>0.06655878764554472</v>
+        <v>0.06593565958668277</v>
       </c>
       <c r="D87">
-        <v>-0.01341177564577395</v>
+        <v>-0.0395098460012299</v>
       </c>
       <c r="E87">
-        <v>0.1378936465737219</v>
+        <v>0.03527789724242044</v>
       </c>
       <c r="F87">
-        <v>0.03269369571417849</v>
+        <v>0.1563118118657489</v>
       </c>
       <c r="G87">
-        <v>0.1566066513948711</v>
+        <v>0.09806203765105896</v>
       </c>
       <c r="H87">
-        <v>-0.01070936119940783</v>
+        <v>0.137391188130059</v>
       </c>
       <c r="I87">
-        <v>0.09792687550516657</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>0.01030285134087267</v>
+      </c>
+      <c r="J87">
+        <v>0.06167983645548444</v>
+      </c>
+      <c r="K87">
+        <v>0.03373542918505747</v>
+      </c>
+      <c r="L87">
+        <v>-0.1050137535626255</v>
+      </c>
+      <c r="M87">
+        <v>0.05363735275317937</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>-0.04726058814445916</v>
+        <v>0.05706895643370936</v>
       </c>
       <c r="C88">
-        <v>0.04144349687438746</v>
+        <v>0.0526850144435719</v>
       </c>
       <c r="D88">
-        <v>-0.01928365318757421</v>
+        <v>0.0276097171217497</v>
       </c>
       <c r="E88">
-        <v>0.004401276043508416</v>
+        <v>0.01390008616743029</v>
       </c>
       <c r="F88">
-        <v>-0.01011404497811881</v>
+        <v>0.02984394814435765</v>
       </c>
       <c r="G88">
-        <v>0.0105188264770147</v>
+        <v>-0.03069760641013477</v>
       </c>
       <c r="H88">
-        <v>-0.005319379766450854</v>
+        <v>-0.02102768068382183</v>
       </c>
       <c r="I88">
-        <v>0.04494736543932341</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>0.04441203805620434</v>
+      </c>
+      <c r="J88">
+        <v>-0.005612312640702503</v>
+      </c>
+      <c r="K88">
+        <v>0.0251769438662733</v>
+      </c>
+      <c r="L88">
+        <v>-0.02133728515404225</v>
+      </c>
+      <c r="M88">
+        <v>-0.02307958260963389</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>-0.1794302649436586</v>
+        <v>0.2171142555606518</v>
       </c>
       <c r="C89">
-        <v>-0.3137017327967603</v>
+        <v>-0.3555039840897757</v>
       </c>
       <c r="D89">
-        <v>-0.06311674729015196</v>
+        <v>-0.04212692343197528</v>
       </c>
       <c r="E89">
-        <v>0.08559925207471601</v>
+        <v>0.08104294720078906</v>
       </c>
       <c r="F89">
-        <v>-0.03612076607851739</v>
+        <v>0.01186235694518294</v>
       </c>
       <c r="G89">
-        <v>2.183919501252448e-05</v>
+        <v>-0.006788919711341019</v>
       </c>
       <c r="H89">
-        <v>-0.006778957136819455</v>
+        <v>-0.02634134533253825</v>
       </c>
       <c r="I89">
-        <v>-0.005632800868676006</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>0.02240385182815315</v>
+      </c>
+      <c r="J89">
+        <v>-0.05936920200876866</v>
+      </c>
+      <c r="K89">
+        <v>0.04682540214002152</v>
+      </c>
+      <c r="L89">
+        <v>-0.02781900170012912</v>
+      </c>
+      <c r="M89">
+        <v>-0.1140699279881325</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>-0.1330122885847194</v>
+        <v>0.1500606490112041</v>
       </c>
       <c r="C90">
-        <v>-0.2729167749919289</v>
+        <v>-0.2696870727884174</v>
       </c>
       <c r="D90">
-        <v>0.001221907489307572</v>
+        <v>0.007374441700095136</v>
       </c>
       <c r="E90">
-        <v>0.05420794491641675</v>
+        <v>0.01849648983800466</v>
       </c>
       <c r="F90">
-        <v>-0.02781550740966628</v>
+        <v>0.0311713161265049</v>
       </c>
       <c r="G90">
-        <v>0.03929254693731564</v>
+        <v>0.002782032334003162</v>
       </c>
       <c r="H90">
-        <v>0.02046866163778464</v>
+        <v>0.02092756150982993</v>
       </c>
       <c r="I90">
-        <v>0.1164526101555294</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>0.06490068560536925</v>
+      </c>
+      <c r="J90">
+        <v>-0.02089018543503887</v>
+      </c>
+      <c r="K90">
+        <v>0.0213118330920878</v>
+      </c>
+      <c r="L90">
+        <v>0.0009378927003406437</v>
+      </c>
+      <c r="M90">
+        <v>0.04902594000802319</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>-0.0806693225204288</v>
+        <v>0.07708357998169821</v>
       </c>
       <c r="C91">
-        <v>0.02895635820423244</v>
+        <v>0.05078923864395893</v>
       </c>
       <c r="D91">
-        <v>-0.01414205977524489</v>
+        <v>-0.009260742068359615</v>
       </c>
       <c r="E91">
-        <v>0.01302705542839056</v>
+        <v>0.009045368745964469</v>
       </c>
       <c r="F91">
-        <v>0.0916598624678004</v>
+        <v>-0.01543471281066812</v>
       </c>
       <c r="G91">
-        <v>-0.05362185202026146</v>
+        <v>-0.08007349024729697</v>
       </c>
       <c r="H91">
-        <v>-0.01884022352167697</v>
+        <v>-0.02282583375548129</v>
       </c>
       <c r="I91">
-        <v>-0.05602623283965376</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>-0.06786099229359915</v>
+      </c>
+      <c r="J91">
+        <v>0.005856820296566787</v>
+      </c>
+      <c r="K91">
+        <v>0.003228594490300669</v>
+      </c>
+      <c r="L91">
+        <v>0.03419504700870173</v>
+      </c>
+      <c r="M91">
+        <v>-0.0009633718668334755</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>-0.1510089529959198</v>
+        <v>0.1651435365954184</v>
       </c>
       <c r="C92">
-        <v>-0.3031743747355402</v>
+        <v>-0.3037845566646862</v>
       </c>
       <c r="D92">
-        <v>-0.03942389787475634</v>
+        <v>-0.03174151780652611</v>
       </c>
       <c r="E92">
-        <v>0.03316085216228066</v>
+        <v>0.04748649388203054</v>
       </c>
       <c r="F92">
-        <v>-0.0425008647714959</v>
+        <v>0.01202891723453167</v>
       </c>
       <c r="G92">
-        <v>-0.07182874924836437</v>
+        <v>-0.03556263544224878</v>
       </c>
       <c r="H92">
-        <v>-0.01211686461204093</v>
+        <v>-0.01961554896459402</v>
       </c>
       <c r="I92">
-        <v>-0.004746145067555843</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>0.01966964852000845</v>
+      </c>
+      <c r="J92">
+        <v>-0.03830075697494325</v>
+      </c>
+      <c r="K92">
+        <v>0.0008115425096222567</v>
+      </c>
+      <c r="L92">
+        <v>-0.003828769008778398</v>
+      </c>
+      <c r="M92">
+        <v>-0.04798492915676374</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>-0.1464252030927028</v>
+        <v>0.1645103843088655</v>
       </c>
       <c r="C93">
-        <v>-0.2457547501841674</v>
+        <v>-0.2876986229037649</v>
       </c>
       <c r="D93">
-        <v>-0.01284216414364283</v>
+        <v>0.02806522196991519</v>
       </c>
       <c r="E93">
-        <v>0.02408221234051141</v>
+        <v>0.007802343024940096</v>
       </c>
       <c r="F93">
-        <v>-0.04536767873123188</v>
+        <v>0.007708455303041278</v>
       </c>
       <c r="G93">
-        <v>0.01453994600350607</v>
+        <v>0.01233551569925101</v>
       </c>
       <c r="H93">
-        <v>-0.0006463850214649592</v>
+        <v>-0.01952653415553781</v>
       </c>
       <c r="I93">
-        <v>0.03205474331727763</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>0.02270891542846172</v>
+      </c>
+      <c r="J93">
+        <v>0.03060265420975862</v>
+      </c>
+      <c r="K93">
+        <v>0.01407320716250273</v>
+      </c>
+      <c r="L93">
+        <v>-0.02262389216703376</v>
+      </c>
+      <c r="M93">
+        <v>0.02605783771712464</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>-0.08734584040755465</v>
+        <v>0.1067902395975469</v>
       </c>
       <c r="C94">
-        <v>0.05877907149320982</v>
+        <v>0.0753295404588737</v>
       </c>
       <c r="D94">
-        <v>-0.01864083504444178</v>
+        <v>-0.01231908278276839</v>
       </c>
       <c r="E94">
-        <v>0.005681996286031669</v>
+        <v>0.01696019412614088</v>
       </c>
       <c r="F94">
-        <v>0.1260672548611948</v>
+        <v>-0.0370957581775791</v>
       </c>
       <c r="G94">
-        <v>-0.07897065018505552</v>
+        <v>-0.1235675734627961</v>
       </c>
       <c r="H94">
-        <v>-0.04154722183506811</v>
+        <v>-0.03600804625868562</v>
       </c>
       <c r="I94">
-        <v>-0.1290984054077647</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>-0.05901100227290924</v>
+      </c>
+      <c r="J94">
+        <v>0.001217506047104097</v>
+      </c>
+      <c r="K94">
+        <v>-0.01581371599726398</v>
+      </c>
+      <c r="L94">
+        <v>0.04010392483989803</v>
+      </c>
+      <c r="M94">
+        <v>-0.0366436852413058</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>-0.1011074487296483</v>
+        <v>0.1334223882733402</v>
       </c>
       <c r="C95">
-        <v>0.08362336604741023</v>
+        <v>0.06994828565375755</v>
       </c>
       <c r="D95">
-        <v>-0.09130402394941239</v>
+        <v>-0.01220847925422986</v>
       </c>
       <c r="E95">
-        <v>0.01525492767651639</v>
+        <v>0.06988722364201318</v>
       </c>
       <c r="F95">
-        <v>-0.05355083379420965</v>
+        <v>0.05636046126169725</v>
       </c>
       <c r="G95">
-        <v>-0.008719302787494259</v>
+        <v>0.1828664408038151</v>
       </c>
       <c r="H95">
-        <v>0.04782677341197527</v>
+        <v>-0.07262450508364685</v>
       </c>
       <c r="I95">
-        <v>0.04475640748197876</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>0.170653523621547</v>
+      </c>
+      <c r="J95">
+        <v>0.1335046400315501</v>
+      </c>
+      <c r="K95">
+        <v>0.09180485479650027</v>
+      </c>
+      <c r="L95">
+        <v>0.006564944247068723</v>
+      </c>
+      <c r="M95">
+        <v>-0.2696052741632656</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3490,97 +4642,145 @@
       <c r="I96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>-0.2908006310189543</v>
+        <v>0.1691286636704322</v>
       </c>
       <c r="C97">
-        <v>0.06213808560288425</v>
+        <v>0.005603312862775537</v>
       </c>
       <c r="D97">
-        <v>0.8695282794782169</v>
+        <v>-0.1011389602657683</v>
       </c>
       <c r="E97">
-        <v>-0.1903538665810414</v>
+        <v>-0.9356208156469136</v>
       </c>
       <c r="F97">
-        <v>-0.07045010312502077</v>
+        <v>0.02041651091508709</v>
       </c>
       <c r="G97">
-        <v>0.0160685896078162</v>
+        <v>0.1072389924745358</v>
       </c>
       <c r="H97">
-        <v>0.06813531567474163</v>
+        <v>-0.03666502663960315</v>
       </c>
       <c r="I97">
-        <v>0.02742755406724258</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>0.01333771057212382</v>
+      </c>
+      <c r="J97">
+        <v>-0.03593609254447358</v>
+      </c>
+      <c r="K97">
+        <v>0.05103110326810106</v>
+      </c>
+      <c r="L97">
+        <v>0.009334607821178219</v>
+      </c>
+      <c r="M97">
+        <v>-0.0372767753612997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>-0.2658698305515372</v>
+        <v>0.2622300885445393</v>
       </c>
       <c r="C98">
-        <v>0.09884518254267344</v>
+        <v>0.1192638371716637</v>
       </c>
       <c r="D98">
-        <v>-0.1706025055140887</v>
+        <v>0.01432708363481612</v>
       </c>
       <c r="E98">
-        <v>-0.2991489185593892</v>
+        <v>0.02588780224541378</v>
       </c>
       <c r="F98">
-        <v>-0.514647187213683</v>
+        <v>-0.4202814897072887</v>
       </c>
       <c r="G98">
-        <v>0.04398591881981852</v>
+        <v>0.2544531779209211</v>
       </c>
       <c r="H98">
-        <v>-0.3286552631718574</v>
+        <v>0.1705752597994812</v>
       </c>
       <c r="I98">
-        <v>0.02462308359522702</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>-0.2004242863633633</v>
+      </c>
+      <c r="J98">
+        <v>-0.02702022759846175</v>
+      </c>
+      <c r="K98">
+        <v>-0.2186005918730231</v>
+      </c>
+      <c r="L98">
+        <v>-0.5797012056452761</v>
+      </c>
+      <c r="M98">
+        <v>-0.0443197842487033</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>-0.04777758705837407</v>
+        <v>0.06681346526665739</v>
       </c>
       <c r="C99">
-        <v>0.02245945936495956</v>
+        <v>0.04565306403219468</v>
       </c>
       <c r="D99">
-        <v>0.009688131153615642</v>
+        <v>-0.0196395739483124</v>
       </c>
       <c r="E99">
-        <v>-0.04232270962054758</v>
+        <v>0.01393866409267265</v>
       </c>
       <c r="F99">
-        <v>-0.02403212078010763</v>
+        <v>-0.01220971112206022</v>
       </c>
       <c r="G99">
-        <v>0.2650613710648294</v>
+        <v>-0.01978810652869133</v>
       </c>
       <c r="H99">
-        <v>-0.5158471558062276</v>
+        <v>0.07003262390682034</v>
       </c>
       <c r="I99">
-        <v>-0.5989237491093721</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>-0.2443877514159028</v>
+      </c>
+      <c r="J99">
+        <v>0.02889086894297423</v>
+      </c>
+      <c r="K99">
+        <v>0.1492312825928307</v>
+      </c>
+      <c r="L99">
+        <v>-0.02268584003097694</v>
+      </c>
+      <c r="M99">
+        <v>-0.4638813337221849</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3606,39 +4806,63 @@
       <c r="I100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>-0.04891120815208298</v>
+        <v>0.04487314376580859</v>
       </c>
       <c r="C101">
-        <v>0.01752771182019425</v>
+        <v>0.022907032969438</v>
       </c>
       <c r="D101">
-        <v>-0.01493864870476362</v>
+        <v>-0.001595077415026707</v>
       </c>
       <c r="E101">
-        <v>0.02584933278538923</v>
+        <v>0.02240516436566877</v>
       </c>
       <c r="F101">
-        <v>0.001435332854102002</v>
+        <v>0.04674253976310969</v>
       </c>
       <c r="G101">
-        <v>-0.01332150832602863</v>
+        <v>-0.03609498180901701</v>
       </c>
       <c r="H101">
-        <v>0.03616561934717669</v>
+        <v>-0.05434058298096574</v>
       </c>
       <c r="I101">
-        <v>0.0116052614651008</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>0.0189031886931603</v>
+      </c>
+      <c r="J101">
+        <v>0.03870189935819491</v>
+      </c>
+      <c r="K101">
+        <v>-0.03045714521783029</v>
+      </c>
+      <c r="L101">
+        <v>-0.03361475614299159</v>
+      </c>
+      <c r="M101">
+        <v>0.01921781175272447</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3664,10 +4888,22 @@
       <c r="I102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3693,10 +4929,22 @@
       <c r="I103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3720,6 +4968,18 @@
         <v>0</v>
       </c>
       <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
